--- a/prof.xlsx
+++ b/prof.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizh\Documents\Code\Algoritmo-de-lota-o-InternosPrimeiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D086995-9D2C-4486-B249-89339D48DD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDAA053-5A6E-4212-AAE2-6F0D4E941344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="5280" windowWidth="19830" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="4725" windowWidth="19830" windowHeight="8490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AB$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="58">
   <si>
     <t>01A URE - BRAGANCA</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>EEEFM DO ROCHA</t>
+  </si>
+  <si>
+    <t>JORNADA</t>
+  </si>
+  <si>
+    <t>Professor 11</t>
+  </si>
+  <si>
+    <t>Professor 12</t>
   </si>
 </sst>
 </file>
@@ -281,13 +290,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,12 +589,13 @@
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -610,64 +621,67 @@
         <v>35</v>
       </c>
       <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
       <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -689,65 +703,68 @@
       <c r="H2" s="1">
         <v>2003</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2">
         <v>5948590</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>40</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="2">
         <v>44148</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2">
+      <c r="R2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2">
         <v>2023</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>6</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>23</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>7</v>
       </c>
-      <c r="V2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
+      <c r="W2" t="s">
+        <v>13</v>
       </c>
       <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
         <v>2</v>
       </c>
-      <c r="Y2">
-        <v>3</v>
-      </c>
       <c r="Z2">
+        <v>3</v>
+      </c>
+      <c r="AA2">
         <v>4</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -769,65 +786,68 @@
       <c r="H3" s="1">
         <v>2003</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3">
         <v>5936943</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>40</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2">
         <v>44156</v>
       </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="P3">
         <v>3</v>
       </c>
       <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
         <v>14</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2023</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>6</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>5</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>4</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>14</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>2</v>
       </c>
-      <c r="X3">
-        <v>3</v>
-      </c>
       <c r="Y3">
+        <v>3</v>
+      </c>
+      <c r="Z3">
         <v>4</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>5</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -849,65 +869,68 @@
       <c r="H4" s="1">
         <v>2002</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="5">
         <v>5973168</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>40</v>
       </c>
       <c r="M4" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="2">
         <v>44153</v>
       </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="P4">
         <v>3</v>
       </c>
       <c r="Q4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4">
         <v>2023</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>4</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>4</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>6</v>
       </c>
-      <c r="V4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4" s="5">
-        <v>6</v>
+      <c r="W4" t="s">
+        <v>13</v>
       </c>
       <c r="X4">
         <v>3</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z4">
         <v>5</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -929,65 +952,68 @@
       <c r="H5" s="1">
         <v>2002</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5">
         <v>5971966</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="2">
+        <v>44151</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="2">
-        <v>44151</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="S5">
+        <v>2023</v>
+      </c>
+      <c r="T5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5" t="s">
+        <v>14</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>8</v>
+      </c>
+      <c r="AA5">
         <v>5</v>
       </c>
-      <c r="Q5" t="s">
-        <v>14</v>
-      </c>
-      <c r="R5">
-        <v>2023</v>
-      </c>
-      <c r="S5" t="s">
-        <v>4</v>
-      </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5" t="s">
-        <v>14</v>
-      </c>
-      <c r="W5">
-        <v>7</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>8</v>
-      </c>
-      <c r="Z5">
-        <v>5</v>
-      </c>
-      <c r="AA5">
-        <v>3</v>
+      <c r="AB5">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1009,65 +1035,68 @@
       <c r="H6" s="1">
         <v>2003</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6">
         <v>5922696</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="K6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
+      <c r="L6">
+        <v>20</v>
       </c>
       <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>44152</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" t="s">
-        <v>13</v>
-      </c>
-      <c r="R6">
+      <c r="R6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6">
         <v>2023</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>6</v>
       </c>
-      <c r="T6">
-        <v>3</v>
-      </c>
       <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
         <v>9</v>
       </c>
-      <c r="V6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6">
+      <c r="W6" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
         <v>2</v>
       </c>
-      <c r="X6">
-        <v>9</v>
-      </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>8</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>10</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1089,65 +1118,68 @@
       <c r="H7" s="1">
         <v>2002</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7">
         <v>5936943</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" t="s">
-        <v>13</v>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>40</v>
       </c>
       <c r="M7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44153</v>
       </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="P7">
         <v>3</v>
       </c>
       <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
         <v>14</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>2023</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>4</v>
       </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
       <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
         <v>5</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>14</v>
       </c>
-      <c r="W7">
-        <v>4</v>
-      </c>
       <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
         <v>6</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>7</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>8</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1169,65 +1201,68 @@
       <c r="H8" s="1">
         <v>2002</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8">
         <v>5974417</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" t="s">
-        <v>14</v>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>40</v>
       </c>
       <c r="M8" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="2">
         <v>44150</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" t="s">
-        <v>13</v>
-      </c>
-      <c r="R8">
+      <c r="R8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8">
         <v>2023</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>4</v>
       </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
       <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
         <v>5</v>
       </c>
-      <c r="V8" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8">
+      <c r="W8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8">
         <v>2</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>4</v>
       </c>
-      <c r="Y8">
+      <c r="Z8" s="5">
         <v>7</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>6</v>
       </c>
-      <c r="AA8">
-        <v>9</v>
+      <c r="AB8" s="5">
+        <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1235,79 +1270,83 @@
         <v>38</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>15057291</v>
-      </c>
-      <c r="F9">
-        <v>1920913530000</v>
+        <v>15055582</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1920910000000</v>
       </c>
       <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9">
+        <v>5923338</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
         <v>40</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>5923338</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" t="s">
-        <v>13</v>
-      </c>
       <c r="M9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="2">
+        <v>13</v>
+      </c>
+      <c r="N9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="2">
         <v>44155</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
         <v>5</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>14</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>2023</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>43</v>
       </c>
-      <c r="T9">
-        <v>3</v>
-      </c>
       <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9" s="5">
         <v>7</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>14</v>
       </c>
-      <c r="W9">
-        <v>10</v>
-      </c>
       <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
         <v>9</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>8</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>7</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>6</v>
       </c>
+      <c r="AC9" s="6"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1329,65 +1368,68 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10">
         <v>5951384</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" t="s">
-        <v>13</v>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>40</v>
       </c>
       <c r="M10" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="2">
         <v>44146</v>
       </c>
-      <c r="O10">
-        <v>3</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="P10">
         <v>3</v>
       </c>
       <c r="Q10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10">
         <v>2023</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>43</v>
       </c>
-      <c r="T10">
-        <v>3</v>
-      </c>
       <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10" t="s">
-        <v>13</v>
-      </c>
-      <c r="W10">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>13</v>
       </c>
       <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
         <v>8</v>
       </c>
-      <c r="Y10">
-        <v>3</v>
-      </c>
       <c r="Z10">
+        <v>3</v>
+      </c>
+      <c r="AA10">
         <v>9</v>
       </c>
-      <c r="AA10">
-        <v>1</v>
+      <c r="AB10">
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1409,71 +1451,150 @@
       <c r="H11" s="1">
         <v>2002</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11">
         <v>5951384</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" t="s">
-        <v>13</v>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>40</v>
       </c>
       <c r="M11" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="2">
         <v>44147</v>
       </c>
-      <c r="O11">
-        <v>3</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="P11">
         <v>3</v>
       </c>
       <c r="Q11" t="s">
-        <v>13</v>
-      </c>
-      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11">
         <v>2023</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>4</v>
       </c>
-      <c r="T11">
-        <v>3</v>
-      </c>
       <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
         <v>9</v>
       </c>
-      <c r="V11" t="s">
-        <v>13</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
+      <c r="W11" t="s">
+        <v>13</v>
       </c>
       <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="5">
         <v>9</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>8</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
+        <v>3</v>
+      </c>
+      <c r="AB11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D12">
         <v>10</v>
       </c>
-      <c r="AA11">
-        <v>5</v>
+      <c r="H12" s="1">
+        <v>2002</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="2">
+        <v>44146</v>
+      </c>
+      <c r="R12" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12">
+        <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V15" s="5"/>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2002</v>
+      </c>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="2">
+        <v>44155</v>
+      </c>
+      <c r="R13" t="s">
+        <v>13</v>
+      </c>
+      <c r="W13" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>4</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AA13">
+        <v>3</v>
+      </c>
+      <c r="AB13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="W15" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:T10">
-    <sortCondition descending="1" ref="T2:T10"/>
+  <autoFilter ref="A1:AB11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:U10">
+    <sortCondition descending="1" ref="U2:U10"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prof.xlsx
+++ b/prof.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizh\Documents\Code\Algoritmo-de-lota-o-InternosPrimeiro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEDUC\Documents\Py\Algoritmo-lotacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDAA053-5A6E-4212-AAE2-6F0D4E941344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A204533-95DC-403D-A410-3A7D0F61F075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="4725" windowWidth="19830" windowHeight="8490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
   <si>
     <t>01A URE - BRAGANCA</t>
   </si>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>Professor 11</t>
-  </si>
-  <si>
-    <t>Professor 12</t>
   </si>
 </sst>
 </file>
@@ -290,14 +287,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,24 +574,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" customWidth="1"/>
-    <col min="12" max="12" width="28.85546875" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.88671875" customWidth="1"/>
+    <col min="12" max="12" width="28.88671875" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -681,7 +677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -764,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -847,7 +843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -930,7 +926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1179,7 +1175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1344,9 +1340,8 @@
       <c r="AB9">
         <v>6</v>
       </c>
-      <c r="AC9" s="6"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1512,9 +1507,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H12" s="1">
         <v>2002</v>
@@ -1522,14 +1517,11 @@
       <c r="I12" t="s">
         <v>56</v>
       </c>
-      <c r="L12">
-        <v>40</v>
-      </c>
       <c r="M12" t="s">
         <v>13</v>
       </c>
       <c r="N12" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="O12" s="2">
         <v>44146</v>
@@ -1537,59 +1529,12 @@
       <c r="R12" t="s">
         <v>13</v>
       </c>
-      <c r="T12" t="s">
-        <v>4</v>
-      </c>
       <c r="W12" t="s">
         <v>13</v>
       </c>
       <c r="X12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2002</v>
-      </c>
-      <c r="I13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="2">
-        <v>44155</v>
-      </c>
-      <c r="R13" t="s">
-        <v>13</v>
-      </c>
-      <c r="W13" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13">
-        <v>4</v>
-      </c>
-      <c r="Z13">
-        <v>2</v>
-      </c>
-      <c r="AA13">
-        <v>3</v>
-      </c>
-      <c r="AB13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="W15" s="5"/>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/prof.xlsx
+++ b/prof.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEDUC\Documents\Py\Algoritmo-lotacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A204533-95DC-403D-A410-3A7D0F61F075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A119AF6F-7BB0-465D-8C9C-BDA6E3A84027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
   <si>
     <t>01A URE - BRAGANCA</t>
   </si>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,7 +856,7 @@
       <c r="E4">
         <v>15056651</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>1920932310000</v>
       </c>
       <c r="G4" t="s">
@@ -939,7 +939,7 @@
       <c r="E5">
         <v>15057291</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>1920913530000</v>
       </c>
       <c r="G5" t="s">
@@ -1188,7 +1188,7 @@
       <c r="E8">
         <v>15056651</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>1920932310000</v>
       </c>
       <c r="G8" t="s">
@@ -1437,7 +1437,7 @@
       <c r="E11">
         <v>15057046</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>1920914340000</v>
       </c>
       <c r="G11" t="s">
@@ -1508,15 +1508,39 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
       <c r="D12">
         <v>4</v>
       </c>
+      <c r="E12">
+        <v>15057291</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1920913530000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
       <c r="H12" s="1">
         <v>2002</v>
       </c>
       <c r="I12" t="s">
         <v>56</v>
       </c>
+      <c r="J12">
+        <v>5951385</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>40</v>
+      </c>
       <c r="M12" t="s">
         <v>13</v>
       </c>
@@ -1526,21 +1550,48 @@
       <c r="O12" s="2">
         <v>44146</v>
       </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>3</v>
+      </c>
       <c r="R12" t="s">
         <v>13</v>
       </c>
+      <c r="S12">
+        <v>2023</v>
+      </c>
+      <c r="T12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>9</v>
+      </c>
       <c r="W12" t="s">
         <v>13</v>
       </c>
       <c r="X12">
         <v>3</v>
+      </c>
+      <c r="Y12">
+        <v>9</v>
+      </c>
+      <c r="Z12">
+        <v>8</v>
+      </c>
+      <c r="AA12">
+        <v>7</v>
+      </c>
+      <c r="AB12">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:U10">
-    <sortCondition descending="1" ref="U2:U10"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/prof.xlsx
+++ b/prof.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEDUC\Documents\Py\Algoritmo-lotacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A119AF6F-7BB0-465D-8C9C-BDA6E3A84027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31E7F64-7F36-4616-A21A-E18D9C8A28F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="57">
   <si>
     <t>01A URE - BRAGANCA</t>
   </si>
   <si>
-    <t>AUGUSTO CORREA</t>
-  </si>
-  <si>
     <t>EE ANDRE ALVES</t>
   </si>
   <si>
@@ -210,6 +207,9 @@
   </si>
   <si>
     <t>Professor 11</t>
+  </si>
+  <si>
+    <t>Professor 12</t>
   </si>
 </sst>
 </file>
@@ -574,107 +574,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
     <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.88671875" customWidth="1"/>
-    <col min="12" max="12" width="28.88671875" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
     <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="24" max="28" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>21</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
@@ -682,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -694,13 +695,13 @@
         <v>1920910000000</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>2003</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>5948590</v>
@@ -712,10 +713,10 @@
         <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O2" s="2">
         <v>44148</v>
@@ -724,16 +725,16 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S2">
         <v>2023</v>
       </c>
       <c r="T2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U2">
         <v>23</v>
@@ -742,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="W2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X2">
         <v>1</v>
@@ -765,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -777,13 +778,13 @@
         <v>1920930000000</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1">
         <v>2003</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>5936943</v>
@@ -795,10 +796,10 @@
         <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O3" s="2">
         <v>44156</v>
@@ -807,16 +808,16 @@
         <v>3</v>
       </c>
       <c r="Q3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S3">
         <v>2023</v>
       </c>
       <c r="T3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U3">
         <v>5</v>
@@ -825,7 +826,7 @@
         <v>4</v>
       </c>
       <c r="W3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X3">
         <v>2</v>
@@ -848,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -860,13 +861,13 @@
         <v>1920932310000</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1">
         <v>2002</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="5">
         <v>5973168</v>
@@ -878,10 +879,10 @@
         <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O4" s="2">
         <v>44153</v>
@@ -890,16 +891,16 @@
         <v>3</v>
       </c>
       <c r="Q4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S4">
         <v>2023</v>
       </c>
       <c r="T4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U4">
         <v>4</v>
@@ -908,7 +909,7 @@
         <v>6</v>
       </c>
       <c r="W4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X4">
         <v>3</v>
@@ -931,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -943,13 +944,13 @@
         <v>1920913530000</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1">
         <v>2002</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5">
         <v>5971966</v>
@@ -961,10 +962,10 @@
         <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O5" s="2">
         <v>44151</v>
@@ -973,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S5">
         <v>2023</v>
       </c>
       <c r="T5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U5">
         <v>3</v>
@@ -991,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="W5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X5">
         <v>4</v>
@@ -1014,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1026,13 +1027,13 @@
         <v>1920910000000</v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
         <v>2003</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6">
         <v>5922696</v>
@@ -1044,10 +1045,10 @@
         <v>20</v>
       </c>
       <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
         <v>41</v>
-      </c>
-      <c r="N6" t="s">
-        <v>42</v>
       </c>
       <c r="O6" s="2">
         <v>44152</v>
@@ -1056,16 +1057,16 @@
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S6">
         <v>2023</v>
       </c>
       <c r="T6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>3</v>
@@ -1074,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="W6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X6">
         <v>4</v>
@@ -1097,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1109,13 +1110,13 @@
         <v>1920930000000</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="1">
         <v>2002</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7">
         <v>5936943</v>
@@ -1127,10 +1128,10 @@
         <v>40</v>
       </c>
       <c r="M7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O7" s="2">
         <v>44153</v>
@@ -1139,16 +1140,16 @@
         <v>3</v>
       </c>
       <c r="Q7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S7">
         <v>2023</v>
       </c>
       <c r="T7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U7">
         <v>3</v>
@@ -1157,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="W7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X7">
         <v>10</v>
@@ -1180,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1192,13 +1193,13 @@
         <v>1920932310000</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1">
         <v>2002</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J8">
         <v>5974417</v>
@@ -1210,10 +1211,10 @@
         <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O8" s="2">
         <v>44150</v>
@@ -1222,16 +1223,16 @@
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S8">
         <v>2023</v>
       </c>
       <c r="T8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -1240,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="W8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X8">
         <v>2</v>
@@ -1263,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1275,13 +1276,13 @@
         <v>1920910000000</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9">
         <v>5923338</v>
@@ -1293,10 +1294,10 @@
         <v>40</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O9" s="2">
         <v>44155</v>
@@ -1305,16 +1306,16 @@
         <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S9">
         <v>2023</v>
       </c>
       <c r="T9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U9">
         <v>3</v>
@@ -1323,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="W9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -1346,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1358,13 +1359,13 @@
         <v>1920910000000</v>
       </c>
       <c r="G10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10">
         <v>5951384</v>
@@ -1376,10 +1377,10 @@
         <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O10" s="2">
         <v>44146</v>
@@ -1388,16 +1389,16 @@
         <v>3</v>
       </c>
       <c r="Q10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S10">
         <v>2023</v>
       </c>
       <c r="T10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U10">
         <v>3</v>
@@ -1406,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="W10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X10">
         <v>1</v>
@@ -1429,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1441,13 +1442,13 @@
         <v>1920914340000</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="1">
         <v>2002</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11">
         <v>5951384</v>
@@ -1459,10 +1460,10 @@
         <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O11" s="2">
         <v>44147</v>
@@ -1471,16 +1472,16 @@
         <v>3</v>
       </c>
       <c r="Q11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S11">
         <v>2023</v>
       </c>
       <c r="T11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U11">
         <v>3</v>
@@ -1489,7 +1490,7 @@
         <v>9</v>
       </c>
       <c r="W11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X11">
         <v>10</v>
@@ -1512,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1524,13 +1525,13 @@
         <v>1920913530000</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1">
         <v>2002</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12">
         <v>5951385</v>
@@ -1542,10 +1543,10 @@
         <v>40</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O12" s="2">
         <v>44146</v>
@@ -1554,16 +1555,16 @@
         <v>3</v>
       </c>
       <c r="Q12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S12">
         <v>2023</v>
       </c>
       <c r="T12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U12">
         <v>3</v>
@@ -1572,7 +1573,7 @@
         <v>9</v>
       </c>
       <c r="W12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X12">
         <v>3</v>
@@ -1589,6 +1590,83 @@
       <c r="AB12">
         <v>6</v>
       </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>15550079</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1920930000000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13">
+        <v>5951386</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>40</v>
+      </c>
+      <c r="M13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="2">
+        <v>44156</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13">
+        <v>2023</v>
+      </c>
+      <c r="T13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>9</v>
+      </c>
+      <c r="W13" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y14" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/prof.xlsx
+++ b/prof.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEDUC\Documents\Py\Algoritmo-lotacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31E7F64-7F36-4616-A21A-E18D9C8A28F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C4BE0A-1A82-4C34-8AF3-85B95E0568C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="58">
   <si>
     <t>01A URE - BRAGANCA</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Professor 12</t>
+  </si>
+  <si>
+    <t>Professor 13</t>
   </si>
 </sst>
 </file>
@@ -574,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,7 +795,7 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="5">
         <v>40</v>
       </c>
       <c r="M3" t="s">
@@ -1666,7 +1669,90 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="Y14" s="5"/>
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>15055582</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1920910000000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2003</v>
+      </c>
+      <c r="I14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14">
+        <v>5922696</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>20</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="2">
+        <v>44152</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14">
+        <v>2023</v>
+      </c>
+      <c r="T14" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>9</v>
+      </c>
+      <c r="W14" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14">
+        <v>4</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+      <c r="Z14">
+        <v>8</v>
+      </c>
+      <c r="AA14">
+        <v>10</v>
+      </c>
+      <c r="AB14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I15" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/prof.xlsx
+++ b/prof.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEDUC\Documents\Py\Algoritmo-lotacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C4BE0A-1A82-4C34-8AF3-85B95E0568C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E00FBAE-9A08-434E-831A-3E8AE0E5DC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AB$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="75">
   <si>
     <t>01A URE - BRAGANCA</t>
   </si>
@@ -68,9 +68,6 @@
     <t>URE</t>
   </si>
   <si>
-    <t>valor</t>
-  </si>
-  <si>
     <t>DATA_EXERCICIO</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>SIM</t>
   </si>
   <si>
-    <t>NÃO</t>
-  </si>
-  <si>
     <t>area_conhecimento</t>
   </si>
   <si>
@@ -213,6 +207,63 @@
   </si>
   <si>
     <t>Professor 13</t>
+  </si>
+  <si>
+    <t>CH_TOTAL</t>
+  </si>
+  <si>
+    <t>Professor 14</t>
+  </si>
+  <si>
+    <t>Professor 15</t>
+  </si>
+  <si>
+    <t>Professor 16</t>
+  </si>
+  <si>
+    <t>Professor 17</t>
+  </si>
+  <si>
+    <t>Professor 18</t>
+  </si>
+  <si>
+    <t>Professor 19</t>
+  </si>
+  <si>
+    <t>Professor 20</t>
+  </si>
+  <si>
+    <t>Professor 21</t>
+  </si>
+  <si>
+    <t>Professor 22</t>
+  </si>
+  <si>
+    <t>Professor 23</t>
+  </si>
+  <si>
+    <t>Professor 24</t>
+  </si>
+  <si>
+    <t>Professor 25</t>
+  </si>
+  <si>
+    <t>Professor 26</t>
+  </si>
+  <si>
+    <t>Professor 27</t>
+  </si>
+  <si>
+    <t>Professor 28</t>
+  </si>
+  <si>
+    <t>Professor 29</t>
+  </si>
+  <si>
+    <t>Professor 30</t>
+  </si>
+  <si>
+    <t>TURNO_N_APTO</t>
   </si>
 </sst>
 </file>
@@ -577,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,105 +639,109 @@
     <col min="3" max="3" width="15.5546875" customWidth="1"/>
     <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.88671875" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" customWidth="1"/>
     <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="13.5546875" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" customWidth="1"/>
+    <col min="25" max="29" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="Z1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -701,10 +756,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J2">
         <v>5948590</v>
@@ -716,10 +771,10 @@
         <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O2" s="2">
         <v>44148</v>
@@ -731,7 +786,7 @@
         <v>7</v>
       </c>
       <c r="R2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S2">
         <v>2023</v>
@@ -740,36 +795,33 @@
         <v>5</v>
       </c>
       <c r="U2">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="V2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="W2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="X2" t="s">
+        <v>39</v>
       </c>
       <c r="Y2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA2">
-        <v>4</v>
-      </c>
-      <c r="AB2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -784,10 +836,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>5936943</v>
@@ -799,10 +851,10 @@
         <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O3" s="2">
         <v>44156</v>
@@ -814,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="S3">
         <v>2023</v>
@@ -826,51 +878,48 @@
         <v>5</v>
       </c>
       <c r="V3">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="W3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X3">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="X3" t="s">
+        <v>39</v>
       </c>
       <c r="Y3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA3">
-        <v>5</v>
-      </c>
-      <c r="AB3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>15056651</v>
+        <v>15057046</v>
       </c>
       <c r="F4" s="1">
-        <v>1920932310000</v>
+        <v>1920914340000</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1">
         <v>2002</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J4" s="5">
         <v>5973168</v>
@@ -882,10 +931,10 @@
         <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" s="2">
         <v>44153</v>
@@ -897,45 +946,42 @@
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S4">
         <v>2023</v>
       </c>
       <c r="T4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U4">
         <v>4</v>
       </c>
       <c r="V4">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="W4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X4">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>3</v>
-      </c>
-      <c r="Z4">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="X4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>2</v>
       </c>
-      <c r="AB4">
-        <v>7</v>
-      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -947,13 +993,13 @@
         <v>1920913530000</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1">
         <v>2002</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>5971966</v>
@@ -962,13 +1008,13 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="N5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O5" s="2">
         <v>44151</v>
@@ -980,63 +1026,60 @@
         <v>4</v>
       </c>
       <c r="R5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="S5">
         <v>2023</v>
       </c>
       <c r="T5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U5">
         <v>3</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s">
-        <v>13</v>
-      </c>
-      <c r="X5">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="X5" t="s">
+        <v>39</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AA5">
-        <v>5</v>
-      </c>
-      <c r="AB5">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>15055582</v>
+        <v>15057046</v>
       </c>
       <c r="F6" s="1">
-        <v>1920910000000</v>
+        <v>1920914340000</v>
       </c>
       <c r="G6" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>5922696</v>
@@ -1045,13 +1088,13 @@
         <v>2</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O6" s="2">
         <v>44152</v>
@@ -1063,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="R6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S6">
         <v>2023</v>
@@ -1075,33 +1118,30 @@
         <v>3</v>
       </c>
       <c r="V6">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="W6" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="X6" t="s">
+        <v>39</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AA6">
-        <v>10</v>
-      </c>
-      <c r="AB6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1119,7 +1159,7 @@
         <v>2002</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <v>5936943</v>
@@ -1128,13 +1168,13 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O7" s="2">
         <v>44153</v>
@@ -1146,45 +1186,42 @@
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="S7">
         <v>2023</v>
       </c>
       <c r="T7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U7">
         <v>3</v>
       </c>
       <c r="V7">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="W7" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="Y7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AA7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AB7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1196,13 +1233,13 @@
         <v>1920932310000</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1">
         <v>2002</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <v>5974417</v>
@@ -1211,13 +1248,13 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O8" s="2">
         <v>44150</v>
@@ -1229,45 +1266,40 @@
         <v>4</v>
       </c>
       <c r="R8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S8">
         <v>2023</v>
       </c>
       <c r="T8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U8">
         <v>3</v>
       </c>
       <c r="V8">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="W8" t="s">
-        <v>12</v>
-      </c>
-      <c r="X8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Y8">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="5">
-        <v>7</v>
-      </c>
-      <c r="AA8">
-        <v>6</v>
-      </c>
-      <c r="AB8" s="5">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="5"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1282,10 +1314,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>2002</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J9">
         <v>5923338</v>
@@ -1297,10 +1329,10 @@
         <v>40</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N9" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="O9" s="2">
         <v>44155</v>
@@ -1312,63 +1344,63 @@
         <v>4</v>
       </c>
       <c r="R9" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="S9">
         <v>2023</v>
       </c>
       <c r="T9" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="U9">
         <v>3</v>
       </c>
-      <c r="V9" s="5">
-        <v>7</v>
+      <c r="V9">
+        <v>39</v>
       </c>
       <c r="W9" t="s">
-        <v>13</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="Y9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Z9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB9">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>15055582</v>
+        <v>15056651</v>
       </c>
       <c r="F10" s="1">
-        <v>1920910000000</v>
+        <v>1920932310000</v>
       </c>
       <c r="G10" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>2002</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J10">
         <v>5951384</v>
@@ -1380,10 +1412,10 @@
         <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="N10" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="O10" s="2">
         <v>44146</v>
@@ -1395,173 +1427,170 @@
         <v>2</v>
       </c>
       <c r="R10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S10">
         <v>2023</v>
       </c>
       <c r="T10" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="U10">
         <v>3</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="W10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Y10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AB10">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="AC10">
+        <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>15057046</v>
+        <v>15056651</v>
       </c>
       <c r="F11" s="1">
-        <v>1920914340000</v>
+        <v>1920932310000</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1">
         <v>2002</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J11">
-        <v>5951384</v>
+        <v>5951385</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" s="5">
-        <v>40</v>
+      <c r="L11">
+        <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="N11" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="O11" s="2">
-        <v>44147</v>
+        <v>44152</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S11">
         <v>2023</v>
       </c>
       <c r="T11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U11">
         <v>3</v>
       </c>
       <c r="V11">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="W11" t="s">
-        <v>12</v>
-      </c>
-      <c r="X11">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="5">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="Y11">
+        <v>4</v>
       </c>
       <c r="Z11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AA11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB11">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>15057291</v>
+        <v>15055582</v>
       </c>
       <c r="F12" s="1">
-        <v>1920913530000</v>
+        <v>1920910000000</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J12">
-        <v>5951385</v>
+        <v>5951386</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12">
         <v>40</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N12" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O12" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S12">
         <v>2023</v>
@@ -1570,36 +1599,30 @@
         <v>3</v>
       </c>
       <c r="U12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V12">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="W12" t="s">
-        <v>12</v>
-      </c>
-      <c r="X12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Y12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AA12">
-        <v>7</v>
-      </c>
-      <c r="AB12">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1614,13 +1637,13 @@
         <v>6</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>2003</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J13">
-        <v>5951386</v>
+        <v>5951387</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1629,10 +1652,10 @@
         <v>40</v>
       </c>
       <c r="M13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N13" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O13" s="2">
         <v>44156</v>
@@ -1644,118 +1667,1459 @@
         <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S13">
         <v>2023</v>
       </c>
       <c r="T13" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V13">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="W13" t="s">
-        <v>40</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="Y13">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AA13">
+        <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>15055582</v>
+        <v>15057046</v>
       </c>
       <c r="F14" s="1">
-        <v>1920910000000</v>
+        <v>1920914340000</v>
       </c>
       <c r="G14" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1">
         <v>2003</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J14">
-        <v>5922696</v>
+        <v>5951388</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M14" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="N14" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="O14" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S14">
         <v>2023</v>
       </c>
       <c r="T14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+      <c r="V14">
+        <v>40</v>
+      </c>
+      <c r="W14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y14">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>15057291</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1920913530000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2003</v>
+      </c>
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15">
+        <v>5951389</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="2">
+        <v>44151</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15">
+        <v>2023</v>
+      </c>
+      <c r="T15" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>39</v>
+      </c>
+      <c r="W15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y15">
+        <v>4</v>
+      </c>
+      <c r="Z15">
+        <v>3</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
         <v>5</v>
       </c>
-      <c r="U14">
-        <v>3</v>
-      </c>
-      <c r="V14">
-        <v>9</v>
-      </c>
-      <c r="W14" t="s">
-        <v>12</v>
-      </c>
-      <c r="X14">
-        <v>4</v>
-      </c>
-      <c r="Y14">
-        <v>2</v>
-      </c>
-      <c r="Z14">
-        <v>8</v>
-      </c>
-      <c r="AA14">
-        <v>10</v>
-      </c>
-      <c r="AB14">
+      <c r="E16">
+        <v>15057046</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1920914340000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2003</v>
+      </c>
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16">
+        <v>5951390</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>40</v>
+      </c>
+      <c r="M16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="2">
+        <v>44152</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16">
+        <v>2023</v>
+      </c>
+      <c r="T16" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>18</v>
+      </c>
+      <c r="W16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+      <c r="Z16">
+        <v>2</v>
+      </c>
+      <c r="AA16">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="I15" s="5"/>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>15550079</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1920930000000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2003</v>
+      </c>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17">
+        <v>5951391</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>20</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="2">
+        <v>44153</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17">
+        <v>2023</v>
+      </c>
+      <c r="T17" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>42</v>
+      </c>
+      <c r="W17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>2</v>
+      </c>
+      <c r="AA17">
+        <v>3</v>
+      </c>
+      <c r="AB17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>15056651</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1920932310000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2003</v>
+      </c>
+      <c r="I18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18">
+        <v>5951392</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="2">
+        <v>44150</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18">
+        <v>2023</v>
+      </c>
+      <c r="T18" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>39</v>
+      </c>
+      <c r="W18" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
+      <c r="Z18">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="5"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>15055582</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1920910000000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2003</v>
+      </c>
+      <c r="I19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19">
+        <v>5951393</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>40</v>
+      </c>
+      <c r="M19" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="2">
+        <v>44155</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s">
+        <v>39</v>
+      </c>
+      <c r="S19">
+        <v>2023</v>
+      </c>
+      <c r="T19" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>39</v>
+      </c>
+      <c r="W19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y19">
+        <v>5</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>3</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>15056651</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1920932310000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2003</v>
+      </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20">
+        <v>5951394</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>40</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="2">
+        <v>44146</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20">
+        <v>2023</v>
+      </c>
+      <c r="T20" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>33</v>
+      </c>
+      <c r="W20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>2</v>
+      </c>
+      <c r="AA20">
+        <v>3</v>
+      </c>
+      <c r="AB20">
+        <v>4</v>
+      </c>
+      <c r="AC20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>15055582</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1920910000000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2003</v>
+      </c>
+      <c r="I21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21">
+        <v>5951395</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="M21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="2">
+        <v>44152</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21">
+        <v>2023</v>
+      </c>
+      <c r="T21" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <v>39</v>
+      </c>
+      <c r="W21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y21">
+        <v>4</v>
+      </c>
+      <c r="Z21">
+        <v>3</v>
+      </c>
+      <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>15055582</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1920910000000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22">
+        <v>5951396</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>40</v>
+      </c>
+      <c r="M22" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="2">
+        <v>44148</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22">
+        <v>2023</v>
+      </c>
+      <c r="T22" t="s">
+        <v>40</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <v>44</v>
+      </c>
+      <c r="W22" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>2</v>
+      </c>
+      <c r="AA22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>15550079</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1920930000000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23">
+        <v>5951397</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5">
+        <v>40</v>
+      </c>
+      <c r="M23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" s="2">
+        <v>44156</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23">
+        <v>2023</v>
+      </c>
+      <c r="T23" t="s">
+        <v>40</v>
+      </c>
+      <c r="U23">
+        <v>5</v>
+      </c>
+      <c r="V23">
+        <v>40</v>
+      </c>
+      <c r="W23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <v>3</v>
+      </c>
+      <c r="AA23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>15057046</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1920914340000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24">
+        <v>5951398</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>40</v>
+      </c>
+      <c r="M24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" s="2">
+        <v>44153</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" t="s">
+        <v>11</v>
+      </c>
+      <c r="S24">
+        <v>2023</v>
+      </c>
+      <c r="T24" t="s">
+        <v>40</v>
+      </c>
+      <c r="U24">
+        <v>4</v>
+      </c>
+      <c r="V24">
+        <v>40</v>
+      </c>
+      <c r="W24" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>15057291</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1920913530000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25">
+        <v>5951399</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+      <c r="M25" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" s="2">
+        <v>44151</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25">
+        <v>2023</v>
+      </c>
+      <c r="T25" t="s">
+        <v>40</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>39</v>
+      </c>
+      <c r="W25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y25">
+        <v>4</v>
+      </c>
+      <c r="Z25">
+        <v>3</v>
+      </c>
+      <c r="AA25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>15057046</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1920914340000</v>
+      </c>
+      <c r="G26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26">
+        <v>5951400</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>40</v>
+      </c>
+      <c r="M26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" s="2">
+        <v>44152</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s">
+        <v>11</v>
+      </c>
+      <c r="S26">
+        <v>2023</v>
+      </c>
+      <c r="T26" t="s">
+        <v>40</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+      <c r="V26">
+        <v>18</v>
+      </c>
+      <c r="W26" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y26">
+        <v>4</v>
+      </c>
+      <c r="Z26">
+        <v>2</v>
+      </c>
+      <c r="AA26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>15550079</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1920930000000</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27">
+        <v>5951401</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>20</v>
+      </c>
+      <c r="M27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" t="s">
+        <v>38</v>
+      </c>
+      <c r="O27" s="2">
+        <v>44153</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27">
+        <v>2023</v>
+      </c>
+      <c r="T27" t="s">
+        <v>40</v>
+      </c>
+      <c r="U27">
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <v>42</v>
+      </c>
+      <c r="W27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>2</v>
+      </c>
+      <c r="AA27">
+        <v>3</v>
+      </c>
+      <c r="AB27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>15056651</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1920932310000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28">
+        <v>5951402</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>20</v>
+      </c>
+      <c r="M28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" s="2">
+        <v>44150</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s">
+        <v>11</v>
+      </c>
+      <c r="S28">
+        <v>2023</v>
+      </c>
+      <c r="T28" t="s">
+        <v>40</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>39</v>
+      </c>
+      <c r="W28" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y28">
+        <v>2</v>
+      </c>
+      <c r="Z28">
+        <v>4</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="5"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>15057291</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1920913530000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29">
+        <v>5951403</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>40</v>
+      </c>
+      <c r="M29" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" s="2">
+        <v>44155</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s">
+        <v>39</v>
+      </c>
+      <c r="S29">
+        <v>2023</v>
+      </c>
+      <c r="T29" t="s">
+        <v>40</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>39</v>
+      </c>
+      <c r="W29" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y29">
+        <v>5</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>3</v>
+      </c>
+      <c r="AB29">
+        <v>2</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>15057291</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1920913530000</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30">
+        <v>5951404</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>40</v>
+      </c>
+      <c r="M30" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" s="2">
+        <v>44146</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" t="s">
+        <v>11</v>
+      </c>
+      <c r="S30">
+        <v>2023</v>
+      </c>
+      <c r="T30" t="s">
+        <v>40</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>33</v>
+      </c>
+      <c r="W30" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>2</v>
+      </c>
+      <c r="AA30">
+        <v>3</v>
+      </c>
+      <c r="AB30">
+        <v>4</v>
+      </c>
+      <c r="AC30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>15055582</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1920910000000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31">
+        <v>5951405</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>20</v>
+      </c>
+      <c r="M31" t="s">
+        <v>38</v>
+      </c>
+      <c r="N31" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" s="2">
+        <v>44152</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s">
+        <v>11</v>
+      </c>
+      <c r="S31">
+        <v>2023</v>
+      </c>
+      <c r="T31" t="s">
+        <v>40</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>39</v>
+      </c>
+      <c r="W31" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y31">
+        <v>4</v>
+      </c>
+      <c r="Z31">
+        <v>3</v>
+      </c>
+      <c r="AA31">
+        <v>2</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AC11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/prof.xlsx
+++ b/prof.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEDUC\Documents\Py\Algoritmo-lotacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E00FBAE-9A08-434E-831A-3E8AE0E5DC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3B495B-6F9C-4876-850B-2514A403F5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AE$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="80">
   <si>
     <t>01A URE - BRAGANCA</t>
   </si>
@@ -264,6 +264,21 @@
   </si>
   <si>
     <t>TURNO_N_APTO</t>
+  </si>
+  <si>
+    <t>TURNO_CONCENTRADO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>DATA_</t>
   </si>
 </sst>
 </file>
@@ -628,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,11 +658,12 @@
     <col min="9" max="9" width="13.21875" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" customWidth="1"/>
     <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.33203125" customWidth="1"/>
-    <col min="25" max="29" width="13.5546875" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" customWidth="1"/>
+    <col min="27" max="31" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -694,49 +710,55 @@
         <v>9</v>
       </c>
       <c r="P1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>12</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>74</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -779,44 +801,50 @@
       <c r="O2" s="2">
         <v>44148</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="P2" s="2">
+        <v>44513</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
         <v>7</v>
       </c>
-      <c r="R2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2">
+      <c r="S2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2">
         <v>2023</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>5</v>
       </c>
-      <c r="U2">
-        <v>4</v>
-      </c>
       <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2">
         <v>44</v>
       </c>
-      <c r="W2" t="s">
-        <v>11</v>
-      </c>
       <c r="X2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>76</v>
       </c>
       <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>2</v>
+      </c>
+      <c r="AC2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -859,44 +887,50 @@
       <c r="O3" s="2">
         <v>44156</v>
       </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>2</v>
+      <c r="P3" s="2">
+        <v>44541</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
       </c>
       <c r="R3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3">
         <v>2023</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>5</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>5</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>40</v>
       </c>
-      <c r="W3" t="s">
-        <v>39</v>
-      </c>
       <c r="X3" t="s">
         <v>39</v>
       </c>
-      <c r="Y3">
-        <v>2</v>
-      </c>
-      <c r="Z3">
-        <v>3</v>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>77</v>
       </c>
       <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AC3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -939,44 +973,50 @@
       <c r="O4" s="2">
         <v>44153</v>
       </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>2</v>
+      <c r="P4" s="2">
+        <v>44542</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
       </c>
       <c r="R4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4">
         <v>2023</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>5</v>
       </c>
-      <c r="U4">
-        <v>4</v>
-      </c>
       <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4">
         <v>40</v>
       </c>
-      <c r="W4" t="s">
-        <v>11</v>
-      </c>
       <c r="X4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y4">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>76</v>
       </c>
       <c r="AA4">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1019,44 +1059,50 @@
       <c r="O5" s="2">
         <v>44151</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>4</v>
+      <c r="P5" s="2">
+        <v>44524</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5">
         <v>2023</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>5</v>
       </c>
-      <c r="U5">
-        <v>3</v>
-      </c>
       <c r="V5">
-        <v>39</v>
-      </c>
-      <c r="W5" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5">
         <v>39</v>
       </c>
       <c r="X5" t="s">
         <v>39</v>
       </c>
-      <c r="Y5">
-        <v>4</v>
-      </c>
-      <c r="Z5">
-        <v>3</v>
+      <c r="Y5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>77</v>
       </c>
       <c r="AA5">
+        <v>4</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1099,44 +1145,50 @@
       <c r="O6" s="2">
         <v>44152</v>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>4</v>
+      <c r="P6" s="2">
+        <v>44525</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>11</v>
-      </c>
-      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6">
         <v>2023</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>5</v>
       </c>
-      <c r="U6">
-        <v>3</v>
-      </c>
       <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
         <v>18</v>
       </c>
-      <c r="W6" t="s">
-        <v>11</v>
-      </c>
       <c r="X6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y6">
-        <v>4</v>
-      </c>
-      <c r="Z6">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>76</v>
       </c>
       <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1179,44 +1231,53 @@
       <c r="O7" s="2">
         <v>44153</v>
       </c>
-      <c r="P7">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>2</v>
+      <c r="P7" s="2">
+        <v>44535</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>39</v>
-      </c>
-      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7">
         <v>2023</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>5</v>
       </c>
-      <c r="U7">
-        <v>3</v>
-      </c>
       <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
         <v>42</v>
       </c>
-      <c r="W7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>2</v>
+      <c r="X7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>77</v>
       </c>
       <c r="AA7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>3</v>
+      </c>
+      <c r="AD7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1259,42 +1320,51 @@
       <c r="O8" s="2">
         <v>44150</v>
       </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>4</v>
+      <c r="P8" s="2">
+        <v>44523</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>11</v>
-      </c>
-      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8">
         <v>2023</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>5</v>
       </c>
-      <c r="U8">
-        <v>3</v>
-      </c>
       <c r="V8">
-        <v>39</v>
-      </c>
-      <c r="W8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y8">
-        <v>2</v>
-      </c>
-      <c r="Z8">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>39</v>
+      </c>
+      <c r="X8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA8">
+        <v>2</v>
+      </c>
+      <c r="AB8">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="5"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1337,47 +1407,56 @@
       <c r="O9" s="2">
         <v>44155</v>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>4</v>
+      <c r="P9" s="2">
+        <v>44520</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9">
         <v>2023</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>5</v>
       </c>
-      <c r="U9">
-        <v>3</v>
-      </c>
       <c r="V9">
-        <v>39</v>
-      </c>
-      <c r="W9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>39</v>
+      </c>
+      <c r="X9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA9">
         <v>5</v>
       </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AA9">
-        <v>3</v>
-      </c>
       <c r="AB9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC9">
+        <v>3</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1420,47 +1499,56 @@
       <c r="O10" s="2">
         <v>44146</v>
       </c>
-      <c r="P10">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>2</v>
+      <c r="P10" s="2">
+        <v>44521</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
       </c>
       <c r="R10" t="s">
-        <v>11</v>
-      </c>
-      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="S10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10">
         <v>2023</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>5</v>
       </c>
-      <c r="U10">
-        <v>3</v>
-      </c>
       <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
         <v>33</v>
       </c>
-      <c r="W10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="Z10">
-        <v>2</v>
+      <c r="X10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>76</v>
       </c>
       <c r="AA10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC10">
+        <v>3</v>
+      </c>
+      <c r="AD10">
+        <v>4</v>
+      </c>
+      <c r="AE10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1503,44 +1591,53 @@
       <c r="O11" s="2">
         <v>44152</v>
       </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>4</v>
+      <c r="P11" s="2">
+        <v>44522</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11">
         <v>2023</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>5</v>
       </c>
-      <c r="U11">
-        <v>3</v>
-      </c>
       <c r="V11">
-        <v>39</v>
-      </c>
-      <c r="W11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y11">
-        <v>4</v>
-      </c>
-      <c r="Z11">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>39</v>
+      </c>
+      <c r="X11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>76</v>
       </c>
       <c r="AA11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB11">
+        <v>3</v>
+      </c>
+      <c r="AC11">
+        <v>2</v>
+      </c>
+      <c r="AD11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1583,41 +1680,50 @@
       <c r="O12" s="2">
         <v>44148</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="P12" s="2">
+        <v>44523</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
         <v>7</v>
       </c>
-      <c r="R12" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12">
+      <c r="S12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12">
         <v>2023</v>
       </c>
-      <c r="T12" t="s">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>4</v>
+      <c r="U12" t="s">
+        <v>3</v>
       </c>
       <c r="V12">
+        <v>4</v>
+      </c>
+      <c r="W12">
         <v>44</v>
       </c>
-      <c r="W12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12">
-        <v>2</v>
+      <c r="X12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>76</v>
       </c>
       <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+      <c r="AC12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1660,41 +1766,50 @@
       <c r="O13" s="2">
         <v>44156</v>
       </c>
-      <c r="P13">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>2</v>
+      <c r="P13" s="2">
+        <v>44541</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
       </c>
       <c r="R13" t="s">
-        <v>39</v>
-      </c>
-      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="S13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13">
         <v>2023</v>
       </c>
-      <c r="T13" t="s">
-        <v>3</v>
-      </c>
-      <c r="U13">
+      <c r="U13" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13">
         <v>5</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>40</v>
       </c>
-      <c r="W13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y13">
-        <v>2</v>
-      </c>
-      <c r="Z13">
-        <v>3</v>
+      <c r="X13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>77</v>
       </c>
       <c r="AA13">
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <v>3</v>
+      </c>
+      <c r="AC13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1737,41 +1852,50 @@
       <c r="O14" s="2">
         <v>44153</v>
       </c>
-      <c r="P14">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>2</v>
+      <c r="P14" s="2">
+        <v>44542</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
       </c>
       <c r="R14" t="s">
-        <v>11</v>
-      </c>
-      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="S14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14">
         <v>2023</v>
       </c>
-      <c r="T14" t="s">
-        <v>3</v>
-      </c>
-      <c r="U14">
-        <v>4</v>
+      <c r="U14" t="s">
+        <v>3</v>
       </c>
       <c r="V14">
+        <v>4</v>
+      </c>
+      <c r="W14">
         <v>40</v>
       </c>
-      <c r="W14" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y14">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="5">
-        <v>1</v>
+      <c r="X14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>78</v>
       </c>
       <c r="AA14">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1814,41 +1938,50 @@
       <c r="O15" s="2">
         <v>44151</v>
       </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>4</v>
+      <c r="P15" s="2">
+        <v>44526</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>39</v>
-      </c>
-      <c r="S15">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s">
+        <v>39</v>
+      </c>
+      <c r="T15">
         <v>2023</v>
       </c>
-      <c r="T15" t="s">
-        <v>3</v>
-      </c>
-      <c r="U15">
+      <c r="U15" t="s">
         <v>3</v>
       </c>
       <c r="V15">
-        <v>39</v>
-      </c>
-      <c r="W15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y15">
-        <v>4</v>
-      </c>
-      <c r="Z15">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>39</v>
+      </c>
+      <c r="X15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>77</v>
       </c>
       <c r="AA15">
+        <v>4</v>
+      </c>
+      <c r="AB15">
+        <v>3</v>
+      </c>
+      <c r="AC15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1891,41 +2024,50 @@
       <c r="O16" s="2">
         <v>44152</v>
       </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>4</v>
+      <c r="P16" s="2">
+        <v>44527</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>11</v>
-      </c>
-      <c r="S16">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16">
         <v>2023</v>
       </c>
-      <c r="T16" t="s">
-        <v>3</v>
-      </c>
-      <c r="U16">
+      <c r="U16" t="s">
         <v>3</v>
       </c>
       <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
         <v>18</v>
       </c>
-      <c r="W16" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y16">
-        <v>4</v>
-      </c>
-      <c r="Z16">
-        <v>2</v>
+      <c r="X16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>78</v>
       </c>
       <c r="AA16">
+        <v>4</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AC16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1968,44 +2110,53 @@
       <c r="O17" s="2">
         <v>44153</v>
       </c>
-      <c r="P17">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>2</v>
+      <c r="P17" s="2">
+        <v>44537</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
       </c>
       <c r="R17" t="s">
-        <v>39</v>
-      </c>
-      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="S17" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17">
         <v>2023</v>
       </c>
-      <c r="T17" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17">
+      <c r="U17" t="s">
         <v>3</v>
       </c>
       <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17">
         <v>42</v>
       </c>
-      <c r="W17" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
-      <c r="Z17">
-        <v>2</v>
+      <c r="X17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>76</v>
       </c>
       <c r="AA17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB17">
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <v>3</v>
+      </c>
+      <c r="AD17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2048,42 +2199,51 @@
       <c r="O18" s="2">
         <v>44150</v>
       </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>4</v>
+      <c r="P18" s="2">
+        <v>44538</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>11</v>
-      </c>
-      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s">
+        <v>11</v>
+      </c>
+      <c r="T18">
         <v>2023</v>
       </c>
-      <c r="T18" t="s">
-        <v>3</v>
-      </c>
-      <c r="U18">
+      <c r="U18" t="s">
         <v>3</v>
       </c>
       <c r="V18">
-        <v>39</v>
-      </c>
-      <c r="W18" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y18">
-        <v>2</v>
-      </c>
-      <c r="Z18">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>39</v>
+      </c>
+      <c r="X18" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
+      <c r="AB18">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="5"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2126,47 +2286,56 @@
       <c r="O19" s="2">
         <v>44155</v>
       </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>4</v>
+      <c r="P19" s="2">
+        <v>44524</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>39</v>
-      </c>
-      <c r="S19">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s">
+        <v>39</v>
+      </c>
+      <c r="T19">
         <v>2023</v>
       </c>
-      <c r="T19" t="s">
-        <v>3</v>
-      </c>
-      <c r="U19">
+      <c r="U19" t="s">
         <v>3</v>
       </c>
       <c r="V19">
-        <v>39</v>
-      </c>
-      <c r="W19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y19">
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <v>39</v>
+      </c>
+      <c r="X19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA19">
         <v>5</v>
       </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-      <c r="AA19">
-        <v>3</v>
-      </c>
       <c r="AB19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC19">
+        <v>3</v>
+      </c>
+      <c r="AD19">
+        <v>2</v>
+      </c>
+      <c r="AE19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2209,47 +2378,56 @@
       <c r="O20" s="2">
         <v>44146</v>
       </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>2</v>
+      <c r="P20" s="2">
+        <v>44525</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
       </c>
       <c r="R20" t="s">
-        <v>11</v>
-      </c>
-      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="S20" t="s">
+        <v>11</v>
+      </c>
+      <c r="T20">
         <v>2023</v>
       </c>
-      <c r="T20" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20">
+      <c r="U20" t="s">
         <v>3</v>
       </c>
       <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
         <v>33</v>
       </c>
-      <c r="W20" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="Z20">
-        <v>2</v>
+      <c r="X20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>77</v>
       </c>
       <c r="AA20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC20">
+        <v>3</v>
+      </c>
+      <c r="AD20">
+        <v>4</v>
+      </c>
+      <c r="AE20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2292,44 +2470,53 @@
       <c r="O21" s="2">
         <v>44152</v>
       </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>4</v>
+      <c r="P21" s="2">
+        <v>44526</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>11</v>
-      </c>
-      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21">
         <v>2023</v>
       </c>
-      <c r="T21" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21">
+      <c r="U21" t="s">
         <v>3</v>
       </c>
       <c r="V21">
-        <v>39</v>
-      </c>
-      <c r="W21" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y21">
-        <v>4</v>
-      </c>
-      <c r="Z21">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>39</v>
+      </c>
+      <c r="X21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>76</v>
       </c>
       <c r="AA21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB21">
+        <v>3</v>
+      </c>
+      <c r="AC21">
+        <v>2</v>
+      </c>
+      <c r="AD21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2372,41 +2559,50 @@
       <c r="O22" s="2">
         <v>44148</v>
       </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="P22" s="2">
+        <v>44523</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
         <v>7</v>
       </c>
-      <c r="R22" t="s">
-        <v>11</v>
-      </c>
-      <c r="S22">
+      <c r="S22" t="s">
+        <v>11</v>
+      </c>
+      <c r="T22">
         <v>2023</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>40</v>
       </c>
-      <c r="U22">
-        <v>4</v>
-      </c>
       <c r="V22">
+        <v>4</v>
+      </c>
+      <c r="W22">
         <v>44</v>
       </c>
-      <c r="W22" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y22">
-        <v>1</v>
-      </c>
-      <c r="Z22">
-        <v>2</v>
+      <c r="X22" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>76</v>
       </c>
       <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2449,41 +2645,50 @@
       <c r="O23" s="2">
         <v>44156</v>
       </c>
-      <c r="P23">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>2</v>
+      <c r="P23" s="2">
+        <v>44536</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
       </c>
       <c r="R23" t="s">
-        <v>39</v>
-      </c>
-      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="S23" t="s">
+        <v>39</v>
+      </c>
+      <c r="T23">
         <v>2023</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>40</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>5</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>40</v>
       </c>
-      <c r="W23" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y23">
-        <v>2</v>
-      </c>
-      <c r="Z23">
-        <v>3</v>
+      <c r="X23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>77</v>
       </c>
       <c r="AA23">
+        <v>2</v>
+      </c>
+      <c r="AB23">
+        <v>3</v>
+      </c>
+      <c r="AC23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2526,41 +2731,50 @@
       <c r="O24" s="2">
         <v>44153</v>
       </c>
-      <c r="P24">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>2</v>
+      <c r="P24" s="2">
+        <v>44535</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
       </c>
       <c r="R24" t="s">
-        <v>11</v>
-      </c>
-      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="S24" t="s">
+        <v>11</v>
+      </c>
+      <c r="T24">
         <v>2023</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>40</v>
       </c>
-      <c r="U24">
-        <v>4</v>
-      </c>
       <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="W24">
         <v>40</v>
       </c>
-      <c r="W24" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y24">
-        <v>3</v>
-      </c>
-      <c r="Z24" s="5">
-        <v>1</v>
+      <c r="X24" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>78</v>
       </c>
       <c r="AA24">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2603,41 +2817,50 @@
       <c r="O25" s="2">
         <v>44151</v>
       </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>4</v>
+      <c r="P25" s="2">
+        <v>44536</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>39</v>
-      </c>
-      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s">
+        <v>39</v>
+      </c>
+      <c r="T25">
         <v>2023</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>40</v>
       </c>
-      <c r="U25">
-        <v>3</v>
-      </c>
       <c r="V25">
-        <v>39</v>
-      </c>
-      <c r="W25" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y25">
-        <v>4</v>
-      </c>
-      <c r="Z25">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>39</v>
+      </c>
+      <c r="X25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>77</v>
       </c>
       <c r="AA25">
+        <v>4</v>
+      </c>
+      <c r="AB25">
+        <v>3</v>
+      </c>
+      <c r="AC25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2680,41 +2903,50 @@
       <c r="O26" s="2">
         <v>44152</v>
       </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>4</v>
+      <c r="P26" s="2">
+        <v>44537</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
       </c>
       <c r="R26" t="s">
-        <v>11</v>
-      </c>
-      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s">
+        <v>11</v>
+      </c>
+      <c r="T26">
         <v>2023</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>40</v>
       </c>
-      <c r="U26">
-        <v>3</v>
-      </c>
       <c r="V26">
+        <v>3</v>
+      </c>
+      <c r="W26">
         <v>18</v>
       </c>
-      <c r="W26" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y26">
-        <v>4</v>
-      </c>
-      <c r="Z26">
-        <v>2</v>
+      <c r="X26" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>77</v>
       </c>
       <c r="AA26">
+        <v>4</v>
+      </c>
+      <c r="AB26">
+        <v>2</v>
+      </c>
+      <c r="AC26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2757,44 +2989,53 @@
       <c r="O27" s="2">
         <v>44153</v>
       </c>
-      <c r="P27">
-        <v>3</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>2</v>
+      <c r="P27" s="2">
+        <v>44538</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
       </c>
       <c r="R27" t="s">
-        <v>39</v>
-      </c>
-      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="S27" t="s">
+        <v>39</v>
+      </c>
+      <c r="T27">
         <v>2023</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>40</v>
       </c>
-      <c r="U27">
-        <v>3</v>
-      </c>
       <c r="V27">
+        <v>3</v>
+      </c>
+      <c r="W27">
         <v>42</v>
       </c>
-      <c r="W27" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-      <c r="Z27">
-        <v>2</v>
+      <c r="X27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>76</v>
       </c>
       <c r="AA27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB27">
+        <v>2</v>
+      </c>
+      <c r="AC27">
+        <v>3</v>
+      </c>
+      <c r="AD27">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2837,42 +3078,51 @@
       <c r="O28" s="2">
         <v>44150</v>
       </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>4</v>
+      <c r="P28" s="2">
+        <v>44539</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
       </c>
       <c r="R28" t="s">
-        <v>11</v>
-      </c>
-      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s">
+        <v>11</v>
+      </c>
+      <c r="T28">
         <v>2023</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>40</v>
       </c>
-      <c r="U28">
-        <v>3</v>
-      </c>
       <c r="V28">
-        <v>39</v>
-      </c>
-      <c r="W28" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y28">
-        <v>2</v>
-      </c>
-      <c r="Z28">
-        <v>4</v>
-      </c>
-      <c r="AA28" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="W28">
+        <v>39</v>
+      </c>
+      <c r="X28" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA28">
+        <v>2</v>
+      </c>
+      <c r="AB28">
+        <v>4</v>
+      </c>
+      <c r="AC28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="5"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2915,47 +3165,56 @@
       <c r="O29" s="2">
         <v>44155</v>
       </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>4</v>
+      <c r="P29" s="2">
+        <v>44540</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
       </c>
       <c r="R29" t="s">
-        <v>39</v>
-      </c>
-      <c r="S29">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s">
+        <v>39</v>
+      </c>
+      <c r="T29">
         <v>2023</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>40</v>
       </c>
-      <c r="U29">
-        <v>3</v>
-      </c>
       <c r="V29">
-        <v>39</v>
-      </c>
-      <c r="W29" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y29">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>39</v>
+      </c>
+      <c r="X29" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA29">
         <v>5</v>
       </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
-      <c r="AA29">
-        <v>3</v>
-      </c>
       <c r="AB29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC29">
+        <v>3</v>
+      </c>
+      <c r="AD29">
+        <v>2</v>
+      </c>
+      <c r="AE29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2998,47 +3257,56 @@
       <c r="O30" s="2">
         <v>44146</v>
       </c>
-      <c r="P30">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>2</v>
+      <c r="P30" s="2">
+        <v>44541</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
       </c>
       <c r="R30" t="s">
-        <v>11</v>
-      </c>
-      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="S30" t="s">
+        <v>11</v>
+      </c>
+      <c r="T30">
         <v>2023</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>40</v>
       </c>
-      <c r="U30">
-        <v>3</v>
-      </c>
       <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
         <v>33</v>
       </c>
-      <c r="W30" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y30">
-        <v>1</v>
-      </c>
-      <c r="Z30">
-        <v>2</v>
+      <c r="X30" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>77</v>
       </c>
       <c r="AA30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC30">
+        <v>3</v>
+      </c>
+      <c r="AD30">
+        <v>4</v>
+      </c>
+      <c r="AE30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -3081,45 +3349,54 @@
       <c r="O31" s="2">
         <v>44152</v>
       </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>4</v>
+      <c r="P31" s="2">
+        <v>44542</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
       </c>
       <c r="R31" t="s">
-        <v>11</v>
-      </c>
-      <c r="S31">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s">
+        <v>11</v>
+      </c>
+      <c r="T31">
         <v>2023</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>40</v>
       </c>
-      <c r="U31">
-        <v>3</v>
-      </c>
       <c r="V31">
-        <v>39</v>
-      </c>
-      <c r="W31" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y31">
-        <v>4</v>
-      </c>
-      <c r="Z31">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="W31">
+        <v>39</v>
+      </c>
+      <c r="X31" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>78</v>
       </c>
       <c r="AA31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB31">
+        <v>3</v>
+      </c>
+      <c r="AC31">
+        <v>2</v>
+      </c>
+      <c r="AD31">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AE11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/prof.xlsx
+++ b/prof.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEDUC\Documents\Py\Algoritmo-lotacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3B495B-6F9C-4876-850B-2514A403F5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF70D73A-E372-4BA7-AC04-D1DC6CE445AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17:P18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/prof.xlsx
+++ b/prof.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEDUC\Documents\Py\Algoritmo-lotacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizh\Documents\Code\Algoritmo-lotacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF70D73A-E372-4BA7-AC04-D1DC6CE445AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B555313-8963-4AA7-8505-D56DDF879118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="22125" windowHeight="8490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AE$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AE$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -278,7 +278,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>DATA_</t>
+    <t>DT_EXERCICIO_NA_ESCOLA</t>
   </si>
 </sst>
 </file>
@@ -356,13 +356,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,25 +646,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" topLeftCell="L6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" customWidth="1"/>
-    <col min="19" max="19" width="7.33203125" customWidth="1"/>
-    <col min="27" max="31" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" customWidth="1"/>
+    <col min="27" max="31" width="13.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -742,23 +743,23 @@
       <c r="Z1" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -834,17 +835,17 @@
       <c r="Z2" t="s">
         <v>76</v>
       </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>2</v>
-      </c>
-      <c r="AC2">
+      <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -920,17 +921,17 @@
       <c r="Z3" t="s">
         <v>77</v>
       </c>
-      <c r="AA3">
-        <v>2</v>
-      </c>
-      <c r="AB3">
-        <v>3</v>
-      </c>
-      <c r="AC3">
+      <c r="AA3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1006,17 +1007,17 @@
       <c r="Z4" t="s">
         <v>76</v>
       </c>
-      <c r="AA4">
-        <v>3</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC4">
+      <c r="AA4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1092,17 +1093,17 @@
       <c r="Z5" t="s">
         <v>77</v>
       </c>
-      <c r="AA5">
-        <v>4</v>
-      </c>
-      <c r="AB5">
-        <v>3</v>
-      </c>
-      <c r="AC5">
+      <c r="AA5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1178,17 +1179,17 @@
       <c r="Z6" t="s">
         <v>76</v>
       </c>
-      <c r="AA6">
-        <v>4</v>
-      </c>
-      <c r="AB6">
-        <v>2</v>
-      </c>
-      <c r="AC6">
+      <c r="AA6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1264,20 +1265,20 @@
       <c r="Z7" t="s">
         <v>77</v>
       </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7">
-        <v>2</v>
-      </c>
-      <c r="AC7">
-        <v>3</v>
-      </c>
-      <c r="AD7">
+      <c r="AA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1353,18 +1354,18 @@
       <c r="Z8" t="s">
         <v>77</v>
       </c>
-      <c r="AA8">
-        <v>2</v>
-      </c>
-      <c r="AB8">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="5"/>
+      <c r="AA8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="6"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1396,7 @@
       <c r="K9">
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <v>40</v>
       </c>
       <c r="M9" t="s">
@@ -1440,23 +1441,23 @@
       <c r="Z9" t="s">
         <v>76</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="1">
         <v>5</v>
       </c>
-      <c r="AB9">
-        <v>1</v>
-      </c>
-      <c r="AC9">
-        <v>3</v>
-      </c>
-      <c r="AD9">
-        <v>2</v>
-      </c>
-      <c r="AE9">
+      <c r="AB9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1532,23 +1533,23 @@
       <c r="Z10" t="s">
         <v>76</v>
       </c>
-      <c r="AA10">
-        <v>1</v>
-      </c>
-      <c r="AB10">
-        <v>2</v>
-      </c>
-      <c r="AC10">
-        <v>3</v>
-      </c>
-      <c r="AD10">
-        <v>4</v>
-      </c>
-      <c r="AE10">
+      <c r="AA10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1624,20 +1625,20 @@
       <c r="Z11" t="s">
         <v>76</v>
       </c>
-      <c r="AA11">
-        <v>4</v>
-      </c>
-      <c r="AB11">
-        <v>3</v>
-      </c>
-      <c r="AC11">
-        <v>2</v>
-      </c>
-      <c r="AD11">
+      <c r="AA11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1713,17 +1714,17 @@
       <c r="Z12" t="s">
         <v>76</v>
       </c>
-      <c r="AA12">
-        <v>1</v>
-      </c>
-      <c r="AB12">
-        <v>2</v>
-      </c>
-      <c r="AC12">
+      <c r="AA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1799,17 +1800,17 @@
       <c r="Z13" t="s">
         <v>77</v>
       </c>
-      <c r="AA13">
-        <v>2</v>
-      </c>
-      <c r="AB13">
-        <v>3</v>
-      </c>
-      <c r="AC13">
+      <c r="AA13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1885,17 +1886,17 @@
       <c r="Z14" t="s">
         <v>78</v>
       </c>
-      <c r="AA14">
-        <v>3</v>
-      </c>
-      <c r="AB14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC14">
+      <c r="AA14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1971,17 +1972,17 @@
       <c r="Z15" t="s">
         <v>77</v>
       </c>
-      <c r="AA15">
-        <v>4</v>
-      </c>
-      <c r="AB15">
-        <v>3</v>
-      </c>
-      <c r="AC15">
+      <c r="AA15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2057,17 +2058,17 @@
       <c r="Z16" t="s">
         <v>78</v>
       </c>
-      <c r="AA16">
-        <v>4</v>
-      </c>
-      <c r="AB16">
-        <v>2</v>
-      </c>
-      <c r="AC16">
+      <c r="AA16" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2143,20 +2144,20 @@
       <c r="Z17" t="s">
         <v>76</v>
       </c>
-      <c r="AA17">
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <v>2</v>
-      </c>
-      <c r="AC17">
-        <v>3</v>
-      </c>
-      <c r="AD17">
+      <c r="AA17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2232,18 +2233,18 @@
       <c r="Z18" t="s">
         <v>76</v>
       </c>
-      <c r="AA18">
-        <v>2</v>
-      </c>
-      <c r="AB18">
-        <v>4</v>
-      </c>
-      <c r="AC18" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="5"/>
+      <c r="AA18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="6"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2319,23 +2320,23 @@
       <c r="Z19" t="s">
         <v>77</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="1">
         <v>5</v>
       </c>
-      <c r="AB19">
-        <v>1</v>
-      </c>
-      <c r="AC19">
-        <v>3</v>
-      </c>
-      <c r="AD19">
-        <v>2</v>
-      </c>
-      <c r="AE19">
+      <c r="AB19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2411,23 +2412,23 @@
       <c r="Z20" t="s">
         <v>77</v>
       </c>
-      <c r="AA20">
-        <v>1</v>
-      </c>
-      <c r="AB20">
-        <v>2</v>
-      </c>
-      <c r="AC20">
-        <v>3</v>
-      </c>
-      <c r="AD20">
-        <v>4</v>
-      </c>
-      <c r="AE20">
+      <c r="AA20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2503,20 +2504,20 @@
       <c r="Z21" t="s">
         <v>76</v>
       </c>
-      <c r="AA21">
-        <v>4</v>
-      </c>
-      <c r="AB21">
-        <v>3</v>
-      </c>
-      <c r="AC21">
-        <v>2</v>
-      </c>
-      <c r="AD21">
+      <c r="AA21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2592,17 +2593,17 @@
       <c r="Z22" t="s">
         <v>76</v>
       </c>
-      <c r="AA22">
-        <v>1</v>
-      </c>
-      <c r="AB22">
-        <v>2</v>
-      </c>
-      <c r="AC22">
+      <c r="AA22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2678,17 +2679,17 @@
       <c r="Z23" t="s">
         <v>77</v>
       </c>
-      <c r="AA23">
-        <v>2</v>
-      </c>
-      <c r="AB23">
-        <v>3</v>
-      </c>
-      <c r="AC23">
+      <c r="AA23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2764,17 +2765,17 @@
       <c r="Z24" t="s">
         <v>78</v>
       </c>
-      <c r="AA24">
-        <v>3</v>
-      </c>
-      <c r="AB24" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC24">
+      <c r="AA24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2850,17 +2851,17 @@
       <c r="Z25" t="s">
         <v>77</v>
       </c>
-      <c r="AA25">
-        <v>4</v>
-      </c>
-      <c r="AB25">
-        <v>3</v>
-      </c>
-      <c r="AC25">
+      <c r="AA25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC25" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2936,17 +2937,17 @@
       <c r="Z26" t="s">
         <v>77</v>
       </c>
-      <c r="AA26">
-        <v>4</v>
-      </c>
-      <c r="AB26">
-        <v>2</v>
-      </c>
-      <c r="AC26">
+      <c r="AA26" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -3022,20 +3023,20 @@
       <c r="Z27" t="s">
         <v>76</v>
       </c>
-      <c r="AA27">
-        <v>1</v>
-      </c>
-      <c r="AB27">
-        <v>2</v>
-      </c>
-      <c r="AC27">
-        <v>3</v>
-      </c>
-      <c r="AD27">
+      <c r="AA27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD27" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -3111,18 +3112,18 @@
       <c r="Z28" t="s">
         <v>76</v>
       </c>
-      <c r="AA28">
-        <v>2</v>
-      </c>
-      <c r="AB28">
-        <v>4</v>
-      </c>
-      <c r="AC28" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="5"/>
+      <c r="AA28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="6"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -3198,23 +3199,23 @@
       <c r="Z29" t="s">
         <v>76</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="1">
         <v>5</v>
       </c>
-      <c r="AB29">
-        <v>1</v>
-      </c>
-      <c r="AC29">
-        <v>3</v>
-      </c>
-      <c r="AD29">
-        <v>2</v>
-      </c>
-      <c r="AE29">
+      <c r="AB29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -3290,23 +3291,23 @@
       <c r="Z30" t="s">
         <v>77</v>
       </c>
-      <c r="AA30">
-        <v>1</v>
-      </c>
-      <c r="AB30">
-        <v>2</v>
-      </c>
-      <c r="AC30">
-        <v>3</v>
-      </c>
-      <c r="AD30">
-        <v>4</v>
-      </c>
-      <c r="AE30">
+      <c r="AA30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE30" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -3382,21 +3383,21 @@
       <c r="Z31" t="s">
         <v>78</v>
       </c>
-      <c r="AA31">
-        <v>4</v>
-      </c>
-      <c r="AB31">
-        <v>3</v>
-      </c>
-      <c r="AC31">
-        <v>2</v>
-      </c>
-      <c r="AD31">
+      <c r="AA31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD31" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AE31" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/prof.xlsx
+++ b/prof.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="92">
   <si>
     <t>URE</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>Professor 94</t>
+  </si>
+  <si>
+    <t>Professor 93</t>
   </si>
 </sst>
 </file>
@@ -1277,10 +1280,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1288,7 +1291,8 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="15.5740740740741" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="9.66666666666667" style="1"/>
     <col min="7" max="7" width="14.1388888888889" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.712962962963" style="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" customWidth="1"/>
@@ -4219,7 +4223,7 @@
         <v>84</v>
       </c>
       <c r="I32" s="4">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>85</v>
@@ -4513,7 +4517,7 @@
         <v>84</v>
       </c>
       <c r="I35" s="4">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>88</v>
@@ -4782,6 +4786,104 @@
       </c>
       <c r="AG37" s="4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:33">
+      <c r="A38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1">
+        <v>15055582</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1920910000000</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I38" s="4">
+        <v>2003</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K38" s="1">
+        <v>5951405</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1">
+        <v>40</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P38" s="6">
+        <v>44152</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>44542</v>
+      </c>
+      <c r="R38" s="1">
+        <v>1</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U38" s="1">
+        <v>2023</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W38" s="1">
+        <v>3</v>
+      </c>
+      <c r="X38" s="1">
+        <v>39</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>2002</v>
+      </c>
+      <c r="AC38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="4">
+        <v>4</v>
+      </c>
+      <c r="AE38" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF38" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG38" s="4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/prof.xlsx
+++ b/prof.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AG$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AG$35</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -148,151 +148,151 @@
     <t>M</t>
   </si>
   <si>
+    <t>Professor 11</t>
+  </si>
+  <si>
+    <t>HISTORIA</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>EEEFM DO ROCHA</t>
+  </si>
+  <si>
+    <t>Professor 13</t>
+  </si>
+  <si>
+    <t>TERCEIRO</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Professor 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAO </t>
+  </si>
+  <si>
+    <t>PRIMEIRO</t>
+  </si>
+  <si>
+    <t>EEEF JOAO PAULO II</t>
+  </si>
+  <si>
+    <t>Professor 17</t>
+  </si>
+  <si>
+    <t>Professor 21</t>
+  </si>
+  <si>
+    <t>MATEMATICA</t>
+  </si>
+  <si>
+    <t>Professor 23</t>
+  </si>
+  <si>
+    <t>Professor 25</t>
+  </si>
+  <si>
+    <t>Professor 27</t>
+  </si>
+  <si>
+    <t>Professor 3</t>
+  </si>
+  <si>
+    <t>Professor 5</t>
+  </si>
+  <si>
+    <t>Professor 7</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>ESCOLA X</t>
+  </si>
+  <si>
+    <t>Professor 93</t>
+  </si>
+  <si>
+    <t>Professor 94</t>
+  </si>
+  <si>
+    <t>Professor 95</t>
+  </si>
+  <si>
+    <t>Professor 96</t>
+  </si>
+  <si>
+    <t>Professor 97</t>
+  </si>
+  <si>
+    <t>Professor 98</t>
+  </si>
+  <si>
+    <t>Professor 99</t>
+  </si>
+  <si>
     <t>EE BENEDITO CARDOSO DE ATAYDE</t>
   </si>
   <si>
+    <t>Professor 12</t>
+  </si>
+  <si>
+    <t>Professor 16</t>
+  </si>
+  <si>
+    <t>Professor 18</t>
+  </si>
+  <si>
     <t>Professor 2</t>
   </si>
   <si>
-    <t>TERCEIRO</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>EEEFM DO ROCHA</t>
-  </si>
-  <si>
-    <t>Professor 3</t>
+    <t>Professor 22</t>
+  </si>
+  <si>
+    <t>Professor 26</t>
   </si>
   <si>
     <t>EEEF PATALINO</t>
   </si>
   <si>
+    <t>Professor 28</t>
+  </si>
+  <si>
+    <t>Professor 6</t>
+  </si>
+  <si>
+    <t>Professor 8</t>
+  </si>
+  <si>
+    <t>Professor 14</t>
+  </si>
+  <si>
+    <t>Professor 24</t>
+  </si>
+  <si>
     <t>Professor 4</t>
   </si>
   <si>
-    <t>PRIMEIRO</t>
-  </si>
-  <si>
-    <t>Professor 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAO </t>
-  </si>
-  <si>
-    <t>Professor 6</t>
-  </si>
-  <si>
-    <t>EEEF JOAO PAULO II</t>
-  </si>
-  <si>
-    <t>Professor 7</t>
-  </si>
-  <si>
-    <t>Professor 8</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>Professor 10</t>
+  </si>
+  <si>
+    <t>Professor 19</t>
+  </si>
+  <si>
+    <t>Professor 20</t>
+  </si>
+  <si>
+    <t>Professor 29</t>
+  </si>
+  <si>
+    <t>Professor 30</t>
   </si>
   <si>
     <t>Professor 9</t>
-  </si>
-  <si>
-    <t>Professor 10</t>
-  </si>
-  <si>
-    <t>Professor 11</t>
-  </si>
-  <si>
-    <t>HISTORIA</t>
-  </si>
-  <si>
-    <t>Professor 12</t>
-  </si>
-  <si>
-    <t>Professor 13</t>
-  </si>
-  <si>
-    <t>Professor 14</t>
-  </si>
-  <si>
-    <t>Professor 15</t>
-  </si>
-  <si>
-    <t>Professor 16</t>
-  </si>
-  <si>
-    <t>Professor 17</t>
-  </si>
-  <si>
-    <t>Professor 18</t>
-  </si>
-  <si>
-    <t>Professor 19</t>
-  </si>
-  <si>
-    <t>Professor 20</t>
-  </si>
-  <si>
-    <t>Professor 21</t>
-  </si>
-  <si>
-    <t>MATEMATICA</t>
-  </si>
-  <si>
-    <t>Professor 22</t>
-  </si>
-  <si>
-    <t>Professor 23</t>
-  </si>
-  <si>
-    <t>Professor 24</t>
-  </si>
-  <si>
-    <t>Professor 25</t>
-  </si>
-  <si>
-    <t>Professor 26</t>
-  </si>
-  <si>
-    <t>Professor 27</t>
-  </si>
-  <si>
-    <t>Professor 28</t>
-  </si>
-  <si>
-    <t>Professor 29</t>
-  </si>
-  <si>
-    <t>Professor 30</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>ESCOLA X</t>
-  </si>
-  <si>
-    <t>Professor 99</t>
-  </si>
-  <si>
-    <t>Professor 98</t>
-  </si>
-  <si>
-    <t>Professor 97</t>
-  </si>
-  <si>
-    <t>Professor 96</t>
-  </si>
-  <si>
-    <t>Professor 95</t>
-  </si>
-  <si>
-    <t>Professor 94</t>
-  </si>
-  <si>
-    <t>Professor 93</t>
   </si>
 </sst>
 </file>
@@ -1282,8 +1282,8 @@
   <sheetPr/>
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1512,30 +1512,30 @@
         <v>35</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>15550079</v>
+        <v>15055582</v>
       </c>
       <c r="G3" s="4">
-        <v>1920930000000</v>
+        <v>1920910000000</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2003</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="4">
-        <v>2002</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K3" s="1">
-        <v>5936943</v>
+        <v>5951386</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="1">
         <v>40</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -1545,52 +1545,52 @@
         <v>38</v>
       </c>
       <c r="P3" s="6">
-        <v>44156</v>
+        <v>44148</v>
       </c>
       <c r="Q3" s="6">
-        <v>44541</v>
+        <v>44523</v>
       </c>
       <c r="R3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U3" s="1">
         <v>2023</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X3" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AB3" s="4">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="AC3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="4">
         <v>2</v>
       </c>
-      <c r="AD3" s="4">
-        <v>3</v>
-      </c>
       <c r="AE3" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:31">
@@ -1613,16 +1613,16 @@
         <v>1920914340000</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2003</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="4">
-        <v>2002</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="7">
-        <v>5973168</v>
+      <c r="K4" s="1">
+        <v>5951388</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -1646,7 +1646,7 @@
         <v>3</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>38</v>
@@ -1655,7 +1655,7 @@
         <v>2023</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W4" s="1">
         <v>4</v>
@@ -1667,13 +1667,13 @@
         <v>38</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AB4" s="4">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="AC4" s="4">
         <v>3</v>
@@ -1696,73 +1696,73 @@
         <v>35</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
-        <v>15057291</v>
+        <v>15057046</v>
       </c>
       <c r="G5" s="4">
-        <v>1920913530000</v>
+        <v>1920914340000</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I5" s="4">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K5" s="1">
-        <v>5971966</v>
+        <v>5951390</v>
       </c>
       <c r="L5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="P5" s="6">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="Q5" s="6">
-        <v>44524</v>
+        <v>44527</v>
       </c>
       <c r="R5" s="1">
         <v>1</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U5" s="1">
         <v>2023</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W5" s="1">
         <v>3</v>
       </c>
       <c r="X5" s="1">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB5" s="4">
         <v>2006</v>
@@ -1771,13 +1771,13 @@
         <v>4</v>
       </c>
       <c r="AD5" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE5" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:31">
+    <row r="6" s="1" customFormat="1" spans="1:33">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1788,49 +1788,49 @@
         <v>35</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
-        <v>15057046</v>
+        <v>15056651</v>
       </c>
       <c r="G6" s="4">
-        <v>1920914340000</v>
+        <v>1920932310000</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I6" s="4">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5951392</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>20</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="6">
+        <v>44150</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>44538</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="K6" s="1">
-        <v>5922696</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2</v>
-      </c>
-      <c r="M6" s="1">
-        <v>40</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="6">
-        <v>44152</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>44525</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>38</v>
@@ -1839,13 +1839,13 @@
         <v>2023</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W6" s="1">
         <v>3</v>
       </c>
       <c r="X6" s="1">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>38</v>
@@ -1860,16 +1860,18 @@
         <v>2006</v>
       </c>
       <c r="AC6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="4">
         <v>4</v>
       </c>
-      <c r="AD6" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>5</v>
-      </c>
+      <c r="AE6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="8"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:32">
+    <row r="7" s="1" customFormat="1" spans="1:31">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,76 +1882,76 @@
         <v>35</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>15550079</v>
+        <v>15055582</v>
       </c>
       <c r="G7" s="4">
-        <v>1920930000000</v>
+        <v>1920910000000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I7" s="4">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K7" s="1">
-        <v>5936943</v>
+        <v>5951396</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="P7" s="6">
-        <v>44153</v>
+        <v>44148</v>
       </c>
       <c r="Q7" s="6">
-        <v>44535</v>
+        <v>44523</v>
       </c>
       <c r="R7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U7" s="1">
         <v>2023</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="W7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X7" s="1">
+        <v>44</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="AB7" s="4">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="AC7" s="4">
         <v>1</v>
@@ -1960,11 +1962,8 @@
       <c r="AE7" s="4">
         <v>3</v>
       </c>
-      <c r="AF7" s="4">
-        <v>4</v>
-      </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:33">
+    <row r="8" s="1" customFormat="1" spans="1:31">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1975,49 +1974,49 @@
         <v>35</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1">
-        <v>15056651</v>
+        <v>15057046</v>
       </c>
       <c r="G8" s="4">
-        <v>1920932310000</v>
+        <v>1920914340000</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I8" s="4">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8" s="1">
-        <v>5974417</v>
+        <v>5951398</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
       </c>
       <c r="M8" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P8" s="6">
-        <v>44150</v>
+        <v>44153</v>
       </c>
       <c r="Q8" s="6">
-        <v>44523</v>
+        <v>44535</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>38</v>
@@ -2026,14 +2025,14 @@
         <v>2023</v>
       </c>
       <c r="V8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W8" s="1">
+        <v>4</v>
+      </c>
+      <c r="X8" s="1">
         <v>40</v>
       </c>
-      <c r="W8" s="1">
-        <v>3</v>
-      </c>
-      <c r="X8" s="1">
-        <v>39</v>
-      </c>
       <c r="Y8" s="1" t="s">
         <v>38</v>
       </c>
@@ -2041,23 +2040,22 @@
         <v>41</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB8" s="4">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="AC8" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="4">
         <v>2</v>
       </c>
-      <c r="AD8" s="4">
-        <v>4</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="8"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:33">
+    <row r="9" s="1" customFormat="1" spans="1:31">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -2068,89 +2066,85 @@
         <v>35</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1">
-        <v>15055582</v>
+        <v>15057046</v>
       </c>
       <c r="G9" s="4">
-        <v>1920910000000</v>
+        <v>1920914340000</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I9" s="4">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="1">
-        <v>5923338</v>
+        <v>5951400</v>
       </c>
       <c r="L9" s="1">
         <v>2</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="1">
         <v>40</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="P9" s="6">
-        <v>44155</v>
+        <v>44152</v>
       </c>
       <c r="Q9" s="6">
-        <v>44520</v>
+        <v>44537</v>
       </c>
       <c r="R9" s="1">
         <v>1</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U9" s="1">
         <v>2023</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="W9" s="1">
         <v>3</v>
       </c>
       <c r="X9" s="1">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB9" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>2002</v>
+      </c>
       <c r="AC9" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="4">
         <v>5</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="4">
-        <v>3</v>
-      </c>
-      <c r="AF9" s="4">
-        <v>2</v>
-      </c>
-      <c r="AG9" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:33">
@@ -2173,40 +2167,40 @@
         <v>1920932310000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I10" s="4">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K10" s="1">
-        <v>5951384</v>
+        <v>5951402</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
       </c>
       <c r="M10" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P10" s="6">
-        <v>44146</v>
+        <v>44150</v>
       </c>
       <c r="Q10" s="6">
-        <v>44521</v>
+        <v>44539</v>
       </c>
       <c r="R10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>38</v>
@@ -2215,13 +2209,13 @@
         <v>2023</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="W10" s="1">
         <v>3</v>
       </c>
       <c r="X10" s="1">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>38</v>
@@ -2233,25 +2227,21 @@
         <v>42</v>
       </c>
       <c r="AB10" s="4">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="AC10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD10" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>3</v>
-      </c>
-      <c r="AF10" s="4">
         <v>4</v>
       </c>
-      <c r="AG10" s="4">
-        <v>5</v>
-      </c>
+      <c r="AE10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="8"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:32">
+    <row r="11" s="1" customFormat="1" spans="1:31">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -2262,16 +2252,16 @@
         <v>35</v>
       </c>
       <c r="E11" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1">
-        <v>15056651</v>
+        <v>15057046</v>
       </c>
       <c r="G11" s="4">
-        <v>1920932310000</v>
+        <v>1920914340000</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I11" s="4">
         <v>2002</v>
@@ -2279,32 +2269,32 @@
       <c r="J11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="1">
-        <v>5951385</v>
+      <c r="K11" s="7">
+        <v>5973168</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
       </c>
       <c r="M11" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P11" s="6">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="Q11" s="6">
-        <v>44522</v>
+        <v>44542</v>
       </c>
       <c r="R11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>38</v>
@@ -2316,10 +2306,10 @@
         <v>40</v>
       </c>
       <c r="W11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X11" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>38</v>
@@ -2334,16 +2324,13 @@
         <v>2003</v>
       </c>
       <c r="AC11" s="4">
-        <v>4</v>
-      </c>
-      <c r="AD11" s="4">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>1</v>
       </c>
       <c r="AE11" s="4">
         <v>2</v>
-      </c>
-      <c r="AF11" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:31">
@@ -2357,28 +2344,28 @@
         <v>35</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1">
-        <v>15055582</v>
+        <v>15057046</v>
       </c>
       <c r="G12" s="4">
-        <v>1920910000000</v>
+        <v>1920914340000</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I12" s="4">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K12" s="1">
-        <v>5951386</v>
+        <v>5922696</v>
       </c>
       <c r="L12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" s="1">
         <v>40</v>
@@ -2387,19 +2374,19 @@
         <v>38</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="P12" s="6">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="Q12" s="6">
-        <v>44523</v>
+        <v>44525</v>
       </c>
       <c r="R12" s="1">
         <v>1</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>38</v>
@@ -2408,37 +2395,37 @@
         <v>2023</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="W12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X12" s="1">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AB12" s="4">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="AC12" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD12" s="4">
         <v>2</v>
       </c>
       <c r="AE12" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:31">
+    <row r="13" s="1" customFormat="1" spans="1:33">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2449,85 +2436,90 @@
         <v>35</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="1">
-        <v>15550079</v>
+        <v>15056651</v>
       </c>
       <c r="G13" s="4">
-        <v>1920930000000</v>
+        <v>1920932310000</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I13" s="4">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" s="1">
-        <v>5951387</v>
+        <v>5974417</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
       </c>
-      <c r="M13" s="7">
-        <v>40</v>
+      <c r="M13" s="1">
+        <v>20</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P13" s="6">
-        <v>44156</v>
+        <v>44150</v>
       </c>
       <c r="Q13" s="6">
-        <v>44541</v>
+        <v>44523</v>
       </c>
       <c r="R13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U13" s="1">
         <v>2023</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="W13" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X13" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>2003</v>
       </c>
       <c r="AC13" s="4">
         <v>2</v>
       </c>
       <c r="AD13" s="4">
-        <v>3</v>
-      </c>
-      <c r="AE13" s="4">
         <v>4</v>
       </c>
+      <c r="AE13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="8"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:31">
+    <row r="14" s="1" customFormat="1" spans="1:33">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -2535,28 +2527,28 @@
         <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1">
-        <v>15057046</v>
+        <v>15055582</v>
       </c>
       <c r="G14" s="4">
-        <v>1920914340000</v>
+        <v>1920910000000</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I14" s="4">
         <v>2003</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K14" s="1">
-        <v>5951388</v>
+        <v>5951405</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
@@ -2571,16 +2563,16 @@
         <v>38</v>
       </c>
       <c r="P14" s="6">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="Q14" s="6">
         <v>44542</v>
       </c>
       <c r="R14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>38</v>
@@ -2589,37 +2581,43 @@
         <v>2023</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="W14" s="1">
+        <v>3</v>
+      </c>
+      <c r="X14" s="1">
+        <v>39</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>2002</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="4">
         <v>4</v>
       </c>
-      <c r="X14" s="1">
-        <v>40</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB14" s="4">
-        <v>2006</v>
-      </c>
-      <c r="AC14" s="4">
-        <v>3</v>
-      </c>
-      <c r="AD14" s="8">
-        <v>1</v>
-      </c>
       <c r="AE14" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF14" s="4">
         <v>2</v>
       </c>
+      <c r="AG14" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:31">
+    <row r="15" s="1" customFormat="1" spans="1:33">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -2627,34 +2625,34 @@
         <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1">
-        <v>15057291</v>
+        <v>15055582</v>
       </c>
       <c r="G15" s="4">
-        <v>1920913530000</v>
+        <v>1920910000000</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I15" s="4">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K15" s="1">
-        <v>5951389</v>
+        <v>5951405</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
       </c>
       <c r="M15" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>38</v>
@@ -2663,25 +2661,25 @@
         <v>38</v>
       </c>
       <c r="P15" s="6">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="Q15" s="6">
-        <v>44526</v>
+        <v>44542</v>
       </c>
       <c r="R15" s="1">
         <v>1</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U15" s="1">
         <v>2023</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="W15" s="1">
         <v>3</v>
@@ -2690,25 +2688,34 @@
         <v>39</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>2003</v>
       </c>
       <c r="AC15" s="4">
+        <v>6</v>
+      </c>
+      <c r="AD15" s="4">
         <v>4</v>
       </c>
-      <c r="AD15" s="4">
-        <v>3</v>
-      </c>
       <c r="AE15" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF15" s="4">
         <v>2</v>
       </c>
+      <c r="AG15" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:31">
+    <row r="16" s="1" customFormat="1" spans="1:33">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -2716,31 +2723,31 @@
         <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="1">
-        <v>15057046</v>
+        <v>15055582</v>
       </c>
       <c r="G16" s="4">
-        <v>1920914340000</v>
+        <v>1920910000000</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I16" s="4">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K16" s="1">
-        <v>5951390</v>
+        <v>5951405</v>
       </c>
       <c r="L16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
         <v>40</v>
@@ -2749,19 +2756,19 @@
         <v>38</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="P16" s="6">
         <v>44152</v>
       </c>
       <c r="Q16" s="6">
-        <v>44527</v>
+        <v>44542</v>
       </c>
       <c r="R16" s="1">
         <v>1</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>38</v>
@@ -2770,13 +2777,13 @@
         <v>2023</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="W16" s="1">
         <v>3</v>
       </c>
       <c r="X16" s="1">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>38</v>
@@ -2785,22 +2792,28 @@
         <v>41</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AB16" s="4">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="AC16" s="4">
+        <v>6</v>
+      </c>
+      <c r="AD16" s="4">
         <v>4</v>
       </c>
-      <c r="AD16" s="4">
+      <c r="AE16" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF16" s="4">
         <v>2</v>
       </c>
-      <c r="AE16" s="4">
-        <v>5</v>
+      <c r="AG16" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:32">
+    <row r="17" s="1" customFormat="1" spans="1:33">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -2808,88 +2821,94 @@
         <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1">
-        <v>15550079</v>
+        <v>15055582</v>
       </c>
       <c r="G17" s="4">
-        <v>1920930000000</v>
+        <v>1920910000000</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I17" s="4">
         <v>2003</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K17" s="1">
-        <v>5951391</v>
+        <v>5951405</v>
       </c>
       <c r="L17" s="1">
         <v>1</v>
       </c>
       <c r="M17" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="P17" s="6">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="Q17" s="6">
-        <v>44537</v>
+        <v>44542</v>
       </c>
       <c r="R17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U17" s="1">
         <v>2023</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="W17" s="1">
         <v>3</v>
       </c>
       <c r="X17" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>2003</v>
       </c>
       <c r="AC17" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD17" s="4">
+        <v>4</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF17" s="4">
         <v>2</v>
       </c>
-      <c r="AE17" s="4">
-        <v>3</v>
-      </c>
-      <c r="AF17" s="4">
-        <v>4</v>
+      <c r="AG17" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:33">
@@ -2900,34 +2919,34 @@
         <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1">
-        <v>15056651</v>
+        <v>15055582</v>
       </c>
       <c r="G18" s="4">
-        <v>1920932310000</v>
+        <v>1920910000000</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I18" s="4">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K18" s="1">
-        <v>5951392</v>
+        <v>5951405</v>
       </c>
       <c r="L18" s="1">
         <v>1</v>
       </c>
       <c r="M18" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>38</v>
@@ -2936,16 +2955,16 @@
         <v>41</v>
       </c>
       <c r="P18" s="6">
-        <v>44150</v>
+        <v>44152</v>
       </c>
       <c r="Q18" s="6">
-        <v>44538</v>
+        <v>44542</v>
       </c>
       <c r="R18" s="1">
         <v>1</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>38</v>
@@ -2954,7 +2973,7 @@
         <v>2023</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="W18" s="1">
         <v>3</v>
@@ -2969,21 +2988,26 @@
         <v>41</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AB18" s="4">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="AC18" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AD18" s="4">
         <v>4</v>
       </c>
-      <c r="AE18" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="8"/>
+      <c r="AE18" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:33">
       <c r="A19" s="1" t="s">
@@ -2993,10 +3017,10 @@
         <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F19" s="1">
         <v>15055582</v>
@@ -3005,19 +3029,19 @@
         <v>1920910000000</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="I19" s="4">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K19" s="1">
-        <v>5951393</v>
+        <v>5951405</v>
       </c>
       <c r="L19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1">
         <v>40</v>
@@ -3026,28 +3050,28 @@
         <v>38</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P19" s="6">
-        <v>44155</v>
+        <v>44152</v>
       </c>
       <c r="Q19" s="6">
-        <v>44524</v>
+        <v>44542</v>
       </c>
       <c r="R19" s="1">
         <v>1</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U19" s="1">
         <v>2023</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="W19" s="1">
         <v>3</v>
@@ -3056,19 +3080,22 @@
         <v>39</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>2003</v>
       </c>
       <c r="AC19" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD19" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE19" s="4">
         <v>3</v>
@@ -3088,28 +3115,28 @@
         <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E20" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1">
-        <v>15056651</v>
+        <v>15055582</v>
       </c>
       <c r="G20" s="4">
-        <v>1920932310000</v>
+        <v>1920910000000</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I20" s="4">
         <v>2003</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K20" s="1">
-        <v>5951394</v>
+        <v>5951405</v>
       </c>
       <c r="L20" s="1">
         <v>1</v>
@@ -3118,22 +3145,22 @@
         <v>40</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P20" s="6">
-        <v>44146</v>
+        <v>44152</v>
       </c>
       <c r="Q20" s="6">
-        <v>44525</v>
+        <v>44542</v>
       </c>
       <c r="R20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>38</v>
@@ -3142,13 +3169,13 @@
         <v>2023</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="W20" s="1">
         <v>3</v>
       </c>
       <c r="X20" s="1">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>38</v>
@@ -3157,7 +3184,7 @@
         <v>41</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB20" s="4">
         <v>2002</v>
@@ -3166,19 +3193,19 @@
         <v>1</v>
       </c>
       <c r="AD20" s="4">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF20" s="4">
         <v>2</v>
-      </c>
-      <c r="AE20" s="4">
-        <v>3</v>
-      </c>
-      <c r="AF20" s="4">
-        <v>4</v>
       </c>
       <c r="AG20" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:32">
+    <row r="21" s="1" customFormat="1" spans="1:31">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -3189,91 +3216,86 @@
         <v>35</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1">
-        <v>15055582</v>
+        <v>15550079</v>
       </c>
       <c r="G21" s="4">
-        <v>1920910000000</v>
+        <v>1920930000000</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="I21" s="4">
         <v>2003</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K21" s="1">
-        <v>5951395</v>
+        <v>5951387</v>
       </c>
       <c r="L21" s="1">
         <v>1</v>
       </c>
-      <c r="M21" s="1">
-        <v>20</v>
+      <c r="M21" s="7">
+        <v>40</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P21" s="6">
-        <v>44152</v>
+        <v>44156</v>
       </c>
       <c r="Q21" s="6">
-        <v>44526</v>
+        <v>44541</v>
       </c>
       <c r="R21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U21" s="1">
         <v>2023</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="W21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X21" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB21" s="4">
-        <v>2002</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="AB21" s="1"/>
       <c r="AC21" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="4">
         <v>4</v>
       </c>
-      <c r="AD21" s="4">
-        <v>3</v>
-      </c>
-      <c r="AE21" s="4">
-        <v>2</v>
-      </c>
-      <c r="AF21" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:31">
+    <row r="22" s="1" customFormat="1" spans="1:32">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -3284,67 +3306,67 @@
         <v>35</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1">
-        <v>15055582</v>
+        <v>15550079</v>
       </c>
       <c r="G22" s="4">
-        <v>1920910000000</v>
+        <v>1920930000000</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="I22" s="4">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K22" s="1">
-        <v>5951396</v>
+        <v>5951391</v>
       </c>
       <c r="L22" s="1">
         <v>1</v>
       </c>
       <c r="M22" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="P22" s="6">
-        <v>44148</v>
+        <v>44153</v>
       </c>
       <c r="Q22" s="6">
-        <v>44523</v>
+        <v>44537</v>
       </c>
       <c r="R22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U22" s="1">
         <v>2023</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="W22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X22" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>41</v>
@@ -3352,9 +3374,7 @@
       <c r="AA22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB22" s="4">
-        <v>2003</v>
-      </c>
+      <c r="AB22" s="1"/>
       <c r="AC22" s="4">
         <v>1</v>
       </c>
@@ -3364,8 +3384,11 @@
       <c r="AE22" s="4">
         <v>3</v>
       </c>
+      <c r="AF22" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:31">
+    <row r="23" s="1" customFormat="1" spans="1:33">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3376,49 +3399,49 @@
         <v>35</v>
       </c>
       <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>15055582</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1920910000000</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2003</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="1">
+        <v>5951393</v>
+      </c>
+      <c r="L23" s="1">
         <v>2</v>
       </c>
-      <c r="F23" s="1">
-        <v>15550079</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1920930000000</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="4">
-        <v>2006</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" s="1">
-        <v>5951397</v>
-      </c>
-      <c r="L23" s="1">
-        <v>1</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="M23" s="1">
         <v>40</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P23" s="6">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="Q23" s="6">
-        <v>44536</v>
+        <v>44524</v>
       </c>
       <c r="R23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>41</v>
@@ -3427,31 +3450,38 @@
         <v>2023</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="W23" s="1">
+        <v>3</v>
+      </c>
+      <c r="X23" s="1">
+        <v>39</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="4">
         <v>5</v>
       </c>
-      <c r="X23" s="1">
-        <v>40</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC23" s="4">
+      <c r="AD23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF23" s="4">
         <v>2</v>
       </c>
-      <c r="AD23" s="4">
-        <v>3</v>
-      </c>
-      <c r="AE23" s="4">
-        <v>4</v>
+      <c r="AG23" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:31">
@@ -3465,30 +3495,30 @@
         <v>35</v>
       </c>
       <c r="E24" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24" s="1">
-        <v>15057046</v>
+        <v>15550079</v>
       </c>
       <c r="G24" s="4">
-        <v>1920914340000</v>
+        <v>1920930000000</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I24" s="4">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K24" s="1">
-        <v>5951398</v>
+        <v>5936943</v>
       </c>
       <c r="L24" s="1">
         <v>1</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="7">
         <v>40</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -3498,52 +3528,52 @@
         <v>38</v>
       </c>
       <c r="P24" s="6">
-        <v>44153</v>
+        <v>44156</v>
       </c>
       <c r="Q24" s="6">
-        <v>44535</v>
+        <v>44541</v>
       </c>
       <c r="R24" s="1">
         <v>3</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U24" s="1">
         <v>2023</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="W24" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X24" s="1">
         <v>40</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AB24" s="4">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="AC24" s="4">
-        <v>3</v>
-      </c>
-      <c r="AD24" s="8">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>3</v>
       </c>
       <c r="AE24" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:31">
@@ -3557,31 +3587,31 @@
         <v>35</v>
       </c>
       <c r="E25" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1">
-        <v>15057291</v>
+        <v>15550079</v>
       </c>
       <c r="G25" s="4">
-        <v>1920913530000</v>
+        <v>1920930000000</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="I25" s="4">
         <v>2006</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K25" s="1">
-        <v>5951399</v>
+        <v>5951397</v>
       </c>
       <c r="L25" s="1">
         <v>1</v>
       </c>
-      <c r="M25" s="1">
-        <v>20</v>
+      <c r="M25" s="7">
+        <v>40</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>38</v>
@@ -3590,16 +3620,16 @@
         <v>38</v>
       </c>
       <c r="P25" s="6">
-        <v>44151</v>
+        <v>44156</v>
       </c>
       <c r="Q25" s="6">
         <v>44536</v>
       </c>
       <c r="R25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>41</v>
@@ -3608,13 +3638,13 @@
         <v>2023</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="W25" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X25" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>41</v>
@@ -3623,19 +3653,20 @@
         <v>41</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="AB25" s="1"/>
       <c r="AC25" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>3</v>
+      </c>
+      <c r="AE25" s="4">
         <v>4</v>
       </c>
-      <c r="AD25" s="4">
-        <v>3</v>
-      </c>
-      <c r="AE25" s="4">
-        <v>2</v>
-      </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:31">
+    <row r="26" s="1" customFormat="1" spans="1:32">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -3646,88 +3677,89 @@
         <v>35</v>
       </c>
       <c r="E26" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1">
-        <v>15057046</v>
+        <v>15550079</v>
       </c>
       <c r="G26" s="4">
-        <v>1920914340000</v>
+        <v>1920930000000</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I26" s="4">
         <v>2006</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K26" s="1">
-        <v>5951400</v>
+        <v>5951401</v>
       </c>
       <c r="L26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P26" s="6">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="Q26" s="6">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="R26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U26" s="1">
         <v>2023</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="W26" s="1">
         <v>3</v>
       </c>
       <c r="X26" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB26" s="4">
-        <v>2002</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB26" s="1"/>
       <c r="AC26" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="4">
         <v>2</v>
       </c>
       <c r="AE26" s="4">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="AF26" s="4">
+        <v>4</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:32">
+    <row r="27" s="1" customFormat="1" spans="1:33">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -3738,49 +3770,49 @@
         <v>35</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" s="1">
-        <v>15550079</v>
+        <v>15057291</v>
       </c>
       <c r="G27" s="4">
-        <v>1920930000000</v>
+        <v>1920913530000</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="I27" s="4">
         <v>2006</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K27" s="1">
-        <v>5951401</v>
+        <v>5951403</v>
       </c>
       <c r="L27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="P27" s="6">
-        <v>44153</v>
+        <v>44155</v>
       </c>
       <c r="Q27" s="6">
-        <v>44538</v>
+        <v>44540</v>
       </c>
       <c r="R27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>41</v>
@@ -3789,37 +3821,41 @@
         <v>2023</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="W27" s="1">
         <v>3</v>
       </c>
       <c r="X27" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AB27" s="1"/>
       <c r="AC27" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF27" s="4">
         <v>2</v>
       </c>
-      <c r="AE27" s="4">
-        <v>3</v>
-      </c>
-      <c r="AF27" s="4">
-        <v>4</v>
+      <c r="AG27" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:33">
+    <row r="28" s="1" customFormat="1" spans="1:32">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -3830,25 +3866,25 @@
         <v>35</v>
       </c>
       <c r="E28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1">
-        <v>15056651</v>
+        <v>15550079</v>
       </c>
       <c r="G28" s="4">
-        <v>1920932310000</v>
+        <v>1920930000000</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="I28" s="4">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K28" s="1">
-        <v>5951402</v>
+        <v>5936943</v>
       </c>
       <c r="L28" s="1">
         <v>1</v>
@@ -3860,57 +3896,59 @@
         <v>38</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="P28" s="6">
-        <v>44150</v>
+        <v>44153</v>
       </c>
       <c r="Q28" s="6">
-        <v>44539</v>
+        <v>44535</v>
       </c>
       <c r="R28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U28" s="1">
         <v>2023</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="W28" s="1">
         <v>3</v>
       </c>
       <c r="X28" s="1">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AB28" s="4">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="AC28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="4">
         <v>2</v>
       </c>
-      <c r="AD28" s="4">
+      <c r="AE28" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF28" s="4">
         <v>4</v>
       </c>
-      <c r="AE28" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="8"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:33">
       <c r="A29" s="1" t="s">
@@ -3923,30 +3961,30 @@
         <v>35</v>
       </c>
       <c r="E29" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>15057291</v>
+        <v>15055582</v>
       </c>
       <c r="G29" s="4">
-        <v>1920913530000</v>
+        <v>1920910000000</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I29" s="4">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K29" s="1">
-        <v>5951403</v>
+        <v>5923338</v>
       </c>
       <c r="L29" s="1">
         <v>2</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="7">
         <v>40</v>
       </c>
       <c r="N29" s="1" t="s">
@@ -3959,13 +3997,13 @@
         <v>44155</v>
       </c>
       <c r="Q29" s="6">
-        <v>44540</v>
+        <v>44520</v>
       </c>
       <c r="R29" s="1">
         <v>1</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>41</v>
@@ -3974,7 +4012,7 @@
         <v>2023</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="W29" s="1">
         <v>3</v>
@@ -3986,11 +4024,12 @@
         <v>41</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AA29" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AB29" s="4"/>
       <c r="AC29" s="4">
         <v>5</v>
       </c>
@@ -4007,7 +4046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:33">
+    <row r="30" s="1" customFormat="1" spans="1:31">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -4023,89 +4062,81 @@
       <c r="F30" s="1">
         <v>15057291</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="1">
         <v>1920913530000</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" s="4">
-        <v>2006</v>
+        <v>79</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2003</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K30" s="1">
-        <v>5951404</v>
+        <v>5951389</v>
       </c>
       <c r="L30" s="1">
         <v>1</v>
       </c>
       <c r="M30" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P30" s="6">
-        <v>44146</v>
+        <v>44151</v>
       </c>
       <c r="Q30" s="6">
-        <v>44541</v>
+        <v>44526</v>
       </c>
       <c r="R30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U30" s="1">
         <v>2023</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="W30" s="1">
         <v>3</v>
       </c>
       <c r="X30" s="1">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB30" s="4">
-        <v>2003</v>
-      </c>
-      <c r="AC30" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="4">
+        <v>49</v>
+      </c>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE30" s="1">
         <v>2</v>
       </c>
-      <c r="AE30" s="4">
-        <v>3</v>
-      </c>
-      <c r="AF30" s="4">
-        <v>4</v>
-      </c>
-      <c r="AG30" s="4">
-        <v>5</v>
-      </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:32">
+    <row r="31" s="1" customFormat="1" spans="1:31">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -4116,25 +4147,25 @@
         <v>35</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" s="1">
-        <v>15055582</v>
-      </c>
-      <c r="G31" s="4">
-        <v>1920910000000</v>
+        <v>15057291</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1920913530000</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="4">
+        <v>79</v>
+      </c>
+      <c r="I31" s="1">
         <v>2006</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K31" s="1">
-        <v>5951405</v>
+        <v>5951399</v>
       </c>
       <c r="L31" s="1">
         <v>1</v>
@@ -4143,31 +4174,31 @@
         <v>20</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P31" s="6">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="Q31" s="6">
-        <v>44542</v>
+        <v>44536</v>
       </c>
       <c r="R31" s="1">
         <v>1</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U31" s="1">
         <v>2023</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="W31" s="1">
         <v>3</v>
@@ -4176,31 +4207,26 @@
         <v>39</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB31" s="4">
-        <v>2002</v>
-      </c>
-      <c r="AC31" s="4">
+        <v>49</v>
+      </c>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1">
         <v>4</v>
       </c>
-      <c r="AD31" s="4">
-        <v>3</v>
-      </c>
-      <c r="AE31" s="4">
+      <c r="AD31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE31" s="1">
         <v>2</v>
       </c>
-      <c r="AF31" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:33">
+    <row r="32" s="1" customFormat="1" spans="1:31">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -4208,34 +4234,34 @@
         <v>34</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E32" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F32" s="1">
-        <v>15055582</v>
-      </c>
-      <c r="G32" s="4">
-        <v>1920910000000</v>
+        <v>15057291</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1920913530000</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I32" s="4">
-        <v>2003</v>
+        <v>79</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2002</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>85</v>
       </c>
       <c r="K32" s="1">
-        <v>5951405</v>
+        <v>5971966</v>
       </c>
       <c r="L32" s="1">
         <v>1</v>
       </c>
       <c r="M32" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>38</v>
@@ -4244,25 +4270,25 @@
         <v>38</v>
       </c>
       <c r="P32" s="6">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="Q32" s="6">
-        <v>44542</v>
+        <v>44524</v>
       </c>
       <c r="R32" s="1">
         <v>1</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U32" s="1">
         <v>2023</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="W32" s="1">
         <v>3</v>
@@ -4271,34 +4297,28 @@
         <v>39</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB32" s="4">
-        <v>2002</v>
-      </c>
-      <c r="AC32" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD32" s="4">
+        <v>49</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>2006</v>
+      </c>
+      <c r="AC32" s="1">
         <v>4</v>
       </c>
-      <c r="AE32" s="4">
-        <v>3</v>
-      </c>
-      <c r="AF32" s="4">
+      <c r="AD32" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE32" s="1">
         <v>2</v>
       </c>
-      <c r="AG32" s="4">
-        <v>5</v>
-      </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:33">
+    <row r="33" s="1" customFormat="1" spans="1:32">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -4306,52 +4326,52 @@
         <v>34</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E33" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F33" s="1">
-        <v>15055582</v>
+        <v>15056651</v>
       </c>
       <c r="G33" s="4">
-        <v>1920910000000</v>
+        <v>1920932310000</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="I33" s="4">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K33" s="1">
-        <v>5951405</v>
+        <v>5951385</v>
       </c>
       <c r="L33" s="1">
         <v>1</v>
       </c>
       <c r="M33" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P33" s="6">
         <v>44152</v>
       </c>
       <c r="Q33" s="6">
-        <v>44542</v>
+        <v>44522</v>
       </c>
       <c r="R33" s="1">
         <v>1</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>38</v>
@@ -4360,7 +4380,7 @@
         <v>2023</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="W33" s="1">
         <v>3</v>
@@ -4375,24 +4395,21 @@
         <v>41</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AB33" s="4">
         <v>2003</v>
       </c>
       <c r="AC33" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD33" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE33" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF33" s="4">
-        <v>2</v>
-      </c>
-      <c r="AG33" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4404,28 +4421,28 @@
         <v>34</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E34" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F34" s="1">
-        <v>15055582</v>
+        <v>15056651</v>
       </c>
       <c r="G34" s="4">
-        <v>1920910000000</v>
+        <v>1920932310000</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="I34" s="4">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K34" s="1">
-        <v>5951405</v>
+        <v>5951394</v>
       </c>
       <c r="L34" s="1">
         <v>1</v>
@@ -4434,22 +4451,22 @@
         <v>40</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P34" s="6">
-        <v>44152</v>
+        <v>44146</v>
       </c>
       <c r="Q34" s="6">
-        <v>44542</v>
+        <v>44525</v>
       </c>
       <c r="R34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>38</v>
@@ -4458,13 +4475,13 @@
         <v>2023</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W34" s="1">
         <v>3</v>
       </c>
       <c r="X34" s="1">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>38</v>
@@ -4473,28 +4490,28 @@
         <v>41</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AB34" s="4">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="AC34" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF34" s="4">
         <v>4</v>
       </c>
-      <c r="AE34" s="4">
-        <v>3</v>
-      </c>
-      <c r="AF34" s="4">
-        <v>2</v>
-      </c>
       <c r="AG34" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:33">
+    <row r="35" s="1" customFormat="1" spans="1:32">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -4502,10 +4519,10 @@
         <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E35" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1">
         <v>15055582</v>
@@ -4514,7 +4531,7 @@
         <v>1920910000000</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="I35" s="4">
         <v>2003</v>
@@ -4523,16 +4540,16 @@
         <v>88</v>
       </c>
       <c r="K35" s="1">
-        <v>5951405</v>
+        <v>5951395</v>
       </c>
       <c r="L35" s="1">
         <v>1</v>
       </c>
       <c r="M35" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>41</v>
@@ -4541,13 +4558,13 @@
         <v>44152</v>
       </c>
       <c r="Q35" s="6">
-        <v>44542</v>
+        <v>44526</v>
       </c>
       <c r="R35" s="1">
         <v>1</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>38</v>
@@ -4556,7 +4573,7 @@
         <v>2023</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="W35" s="1">
         <v>3</v>
@@ -4571,28 +4588,25 @@
         <v>41</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AB35" s="4">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="AC35" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD35" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE35" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF35" s="4">
-        <v>2</v>
-      </c>
-      <c r="AG35" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:33">
+    <row r="36" spans="1:33">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -4600,19 +4614,19 @@
         <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E36" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F36" s="1">
-        <v>15055582</v>
+        <v>15057291</v>
       </c>
       <c r="G36" s="4">
-        <v>1920910000000</v>
+        <v>1920913530000</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I36" s="4">
         <v>2006</v>
@@ -4621,7 +4635,7 @@
         <v>89</v>
       </c>
       <c r="K36" s="1">
-        <v>5951405</v>
+        <v>5951404</v>
       </c>
       <c r="L36" s="1">
         <v>1</v>
@@ -4630,22 +4644,22 @@
         <v>40</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P36" s="6">
-        <v>44152</v>
+        <v>44146</v>
       </c>
       <c r="Q36" s="6">
-        <v>44542</v>
+        <v>44541</v>
       </c>
       <c r="R36" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>38</v>
@@ -4654,43 +4668,43 @@
         <v>2023</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="W36" s="1">
         <v>3</v>
       </c>
       <c r="X36" s="1">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AB36" s="4">
         <v>2003</v>
       </c>
       <c r="AC36" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE36" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF36" s="4">
         <v>4</v>
       </c>
-      <c r="AE36" s="4">
-        <v>3</v>
-      </c>
-      <c r="AF36" s="4">
-        <v>2</v>
-      </c>
       <c r="AG36" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:33">
+    <row r="37" spans="1:32">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -4698,10 +4712,10 @@
         <v>34</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E37" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1">
         <v>15055582</v>
@@ -4710,7 +4724,7 @@
         <v>1920910000000</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="I37" s="4">
         <v>2006</v>
@@ -4725,13 +4739,13 @@
         <v>1</v>
       </c>
       <c r="M37" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P37" s="6">
         <v>44152</v>
@@ -4743,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>38</v>
@@ -4752,7 +4766,7 @@
         <v>2023</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="W37" s="1">
         <v>3</v>
@@ -4767,28 +4781,25 @@
         <v>41</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AB37" s="4">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="AC37" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD37" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE37" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF37" s="4">
-        <v>2</v>
-      </c>
-      <c r="AG37" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:33">
+    <row r="38" spans="1:33">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
@@ -4796,28 +4807,28 @@
         <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E38" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F38" s="1">
-        <v>15055582</v>
+        <v>15056651</v>
       </c>
       <c r="G38" s="4">
-        <v>1920910000000</v>
+        <v>1920932310000</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="I38" s="4">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>91</v>
       </c>
       <c r="K38" s="1">
-        <v>5951405</v>
+        <v>5951384</v>
       </c>
       <c r="L38" s="1">
         <v>1</v>
@@ -4826,22 +4837,22 @@
         <v>40</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P38" s="6">
-        <v>44152</v>
+        <v>44146</v>
       </c>
       <c r="Q38" s="6">
-        <v>44542</v>
+        <v>44521</v>
       </c>
       <c r="R38" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>38</v>
@@ -4850,13 +4861,13 @@
         <v>2023</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="W38" s="1">
         <v>3</v>
       </c>
       <c r="X38" s="1">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>38</v>
@@ -4865,31 +4876,31 @@
         <v>41</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AB38" s="4">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="AC38" s="4">
         <v>1</v>
       </c>
       <c r="AD38" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE38" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF38" s="4">
         <v>4</v>
-      </c>
-      <c r="AE38" s="4">
-        <v>3</v>
-      </c>
-      <c r="AF38" s="4">
-        <v>2</v>
       </c>
       <c r="AG38" s="4">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG33">
-    <extLst/>
-  </autoFilter>
+  <sortState ref="A2:AG38">
+    <sortCondition ref="N2" descending="1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
